--- a/Wynik końcowy na koniec sezonu.xlsx
+++ b/Wynik końcowy na koniec sezonu.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr updateLinks="always" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projekt_na_studia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6816AD2F-D935-40FF-9ED9-E95168CBBE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DB6877-4D88-4843-8F8F-4CF333991502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3705" windowWidth="29040" windowHeight="15840" xr2:uid="{ECB29434-B3BC-4FD8-9A04-DB96BF556489}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="28680" windowHeight="15420" xr2:uid="{ECB29434-B3BC-4FD8-9A04-DB96BF556489}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -338,7 +338,7 @@
             <v xml:space="preserve"> Śląsk Wrocław</v>
           </cell>
           <cell r="C3" t="str">
-            <v>Zagłębie Lubin</v>
+            <v>Śląsk Wrocław</v>
           </cell>
         </row>
         <row r="4">
@@ -371,7 +371,7 @@
             <v xml:space="preserve"> Cracovia</v>
           </cell>
           <cell r="C6" t="str">
-            <v>Górnik Zabrze</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="7">
@@ -448,7 +448,7 @@
             <v xml:space="preserve"> Widzew Łódź</v>
           </cell>
           <cell r="C13" t="str">
-            <v>Widzew Łódź</v>
+            <v>Jagielonia Białystok</v>
           </cell>
         </row>
         <row r="14">
@@ -459,7 +459,7 @@
             <v xml:space="preserve"> Górnik Zabrze</v>
           </cell>
           <cell r="C14" t="str">
-            <v>Lechia Gdańsk</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="15">
@@ -470,7 +470,7 @@
             <v>Zagłębie Lubin</v>
           </cell>
           <cell r="C15" t="str">
-            <v>Legia Warszawa</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="16">
@@ -492,7 +492,7 @@
             <v>Radomiak Radom</v>
           </cell>
           <cell r="C17" t="str">
-            <v>Radomiak Radom</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="18">
@@ -503,7 +503,7 @@
             <v>Wisła Płock</v>
           </cell>
           <cell r="C18" t="str">
-            <v>Warta Poznań</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="19">
@@ -525,7 +525,7 @@
             <v>Legia Warszawa</v>
           </cell>
           <cell r="C20" t="str">
-            <v>Cracovia</v>
+            <v>Legia Warszawa</v>
           </cell>
         </row>
         <row r="21">
@@ -536,7 +536,7 @@
             <v>Zagłębie Lubin</v>
           </cell>
           <cell r="C21" t="str">
-            <v>Remis</v>
+            <v>Piast Gliwice</v>
           </cell>
         </row>
         <row r="22">
@@ -547,7 +547,7 @@
             <v>Śląsk Wrocław</v>
           </cell>
           <cell r="C22" t="str">
-            <v>Śląsk Wrocław</v>
+            <v>Korona Kielce</v>
           </cell>
         </row>
         <row r="23">
@@ -569,7 +569,7 @@
             <v>Warta Poznań</v>
           </cell>
           <cell r="C24" t="str">
-            <v>Warta Poznań</v>
+            <v>Miedź Legnica</v>
           </cell>
         </row>
         <row r="25">
@@ -591,7 +591,7 @@
             <v>Górnik Zabrze</v>
           </cell>
           <cell r="C26" t="str">
-            <v>Górnik Zabrze</v>
+            <v>Radomiak Radom</v>
           </cell>
         </row>
         <row r="27">
@@ -624,7 +624,7 @@
             <v>Radomiak Radom</v>
           </cell>
           <cell r="C29" t="str">
-            <v>Jagielonia Białystok</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="30">
@@ -635,7 +635,7 @@
             <v>Lech Poznań</v>
           </cell>
           <cell r="C30" t="str">
-            <v>Lech Poznań</v>
+            <v>Zagłębie Lubin</v>
           </cell>
         </row>
         <row r="31">
@@ -679,7 +679,7 @@
             <v>Cracovia</v>
           </cell>
           <cell r="C34" t="str">
-            <v>Remis</v>
+            <v>Cracovia</v>
           </cell>
         </row>
         <row r="35">
@@ -723,7 +723,7 @@
             <v xml:space="preserve"> Piast Gliwice</v>
           </cell>
           <cell r="C38" t="str">
-            <v>Remis</v>
+            <v>Piast Gliwice</v>
           </cell>
         </row>
         <row r="39">
@@ -745,7 +745,7 @@
             <v>Śląsk Wrocław</v>
           </cell>
           <cell r="C40" t="str">
-            <v>Lech Poznań</v>
+            <v>Śląsk Wrocław</v>
           </cell>
         </row>
         <row r="41">
@@ -756,7 +756,7 @@
             <v>Zagłębie Lubin</v>
           </cell>
           <cell r="C41" t="str">
-            <v>Remis</v>
+            <v>Zagłębie Lubin</v>
           </cell>
         </row>
         <row r="42">
@@ -767,7 +767,7 @@
             <v>Stal Mielec</v>
           </cell>
           <cell r="C42" t="str">
-            <v>Stal Mielec</v>
+            <v>Górnik Zabrze</v>
           </cell>
         </row>
         <row r="43">
@@ -789,7 +789,7 @@
             <v>Lechia Gdańsk</v>
           </cell>
           <cell r="C44" t="str">
-            <v>Radomiak Radom</v>
+            <v>Lechia Gdańsk</v>
           </cell>
         </row>
         <row r="45">
@@ -822,7 +822,7 @@
             <v xml:space="preserve"> Stal Mielec</v>
           </cell>
           <cell r="C47" t="str">
-            <v>Piast Gliwice</v>
+            <v>Stal Mielec</v>
           </cell>
         </row>
         <row r="48">
@@ -833,7 +833,7 @@
             <v xml:space="preserve"> Miedź Legnica</v>
           </cell>
           <cell r="C48" t="str">
-            <v>Remis</v>
+            <v>Jagielonia Białystok</v>
           </cell>
         </row>
         <row r="49">
@@ -855,7 +855,7 @@
             <v xml:space="preserve"> Lech Poznań</v>
           </cell>
           <cell r="C50" t="str">
-            <v>Lechia Gdańsk</v>
+            <v>Lech Poznań</v>
           </cell>
         </row>
         <row r="51">
@@ -866,7 +866,7 @@
             <v xml:space="preserve"> Górnik Zabrze</v>
           </cell>
           <cell r="C51" t="str">
-            <v>Remis</v>
+            <v>Legia Warszawa</v>
           </cell>
         </row>
         <row r="52">
@@ -877,7 +877,7 @@
             <v xml:space="preserve"> Pogoń Szczecin</v>
           </cell>
           <cell r="C52" t="str">
-            <v>Raków Częstochowa</v>
+            <v>Pogoń Szczecin</v>
           </cell>
         </row>
         <row r="53">
@@ -921,7 +921,7 @@
             <v xml:space="preserve"> Warta Poznań</v>
           </cell>
           <cell r="C56" t="str">
-            <v>Remis</v>
+            <v>Cracovia</v>
           </cell>
         </row>
         <row r="57">
@@ -943,7 +943,7 @@
             <v xml:space="preserve"> Lechia Gdańsk</v>
           </cell>
           <cell r="C58" t="str">
-            <v>Miedź Legnica</v>
+            <v>Lechia Gdańsk</v>
           </cell>
         </row>
         <row r="59">
@@ -954,7 +954,7 @@
             <v xml:space="preserve"> Jagielonia Białystok</v>
           </cell>
           <cell r="C59" t="str">
-            <v>Górnik Zabrze</v>
+            <v>Jagielonia Białystok</v>
           </cell>
         </row>
         <row r="60">
@@ -976,7 +976,7 @@
             <v xml:space="preserve"> Korona Kielce</v>
           </cell>
           <cell r="C61" t="str">
-            <v>Remis</v>
+            <v>Radomiak Radom</v>
           </cell>
         </row>
         <row r="62">
@@ -998,7 +998,7 @@
             <v xml:space="preserve"> Wisła Płock</v>
           </cell>
           <cell r="C63" t="str">
-            <v>Remis</v>
+            <v>Wisła Płock</v>
           </cell>
         </row>
         <row r="64">
@@ -1009,7 +1009,7 @@
             <v xml:space="preserve"> Raków Częstochowa</v>
           </cell>
           <cell r="C64" t="str">
-            <v>Śląsk Wrocław</v>
+            <v>Raków Częstochowa</v>
           </cell>
         </row>
         <row r="65">
@@ -1020,7 +1020,7 @@
             <v xml:space="preserve"> Raków Częstochowa</v>
           </cell>
           <cell r="C65" t="str">
-            <v>Cracovia</v>
+            <v>Raków Częstochowa</v>
           </cell>
         </row>
         <row r="66">
@@ -1031,7 +1031,7 @@
             <v xml:space="preserve"> Miedź Legnica</v>
           </cell>
           <cell r="C66" t="str">
-            <v>Piast Gliwice</v>
+            <v>Miedź Legnica</v>
           </cell>
         </row>
         <row r="67">
@@ -1042,7 +1042,7 @@
             <v xml:space="preserve"> Jagielonia Białystok</v>
           </cell>
           <cell r="C67" t="str">
-            <v>Jagielonia Białystok</v>
+            <v>Zagłębie Lubin</v>
           </cell>
         </row>
         <row r="68">
@@ -1053,7 +1053,7 @@
             <v xml:space="preserve"> Pogoń Szczecin</v>
           </cell>
           <cell r="C68" t="str">
-            <v>Pogoń Szczecin</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="69">
@@ -1075,7 +1075,7 @@
             <v xml:space="preserve"> Warta Poznań</v>
           </cell>
           <cell r="C70" t="str">
-            <v>Remis</v>
+            <v>Lechia Gdańsk</v>
           </cell>
         </row>
         <row r="71">
@@ -1108,7 +1108,7 @@
             <v xml:space="preserve"> Górnik Zabrze</v>
           </cell>
           <cell r="C73" t="str">
-            <v>Górnik Zabrze</v>
+            <v>Wisła Płock</v>
           </cell>
         </row>
         <row r="74">
@@ -1130,7 +1130,7 @@
             <v xml:space="preserve"> Korona Kielce</v>
           </cell>
           <cell r="C75" t="str">
-            <v>Miedź Legnica</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="76">
@@ -1141,7 +1141,7 @@
             <v xml:space="preserve"> Piast Gliwice</v>
           </cell>
           <cell r="C76" t="str">
-            <v>Górnik Zabrze</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="77">
@@ -1152,7 +1152,7 @@
             <v xml:space="preserve"> Lech Poznań</v>
           </cell>
           <cell r="C77" t="str">
-            <v>Remis</v>
+            <v>Lech Poznań</v>
           </cell>
         </row>
         <row r="78">
@@ -1185,7 +1185,7 @@
             <v xml:space="preserve"> Zagłębie Lubin</v>
           </cell>
           <cell r="C80" t="str">
-            <v>Remis</v>
+            <v>Warta Poznań</v>
           </cell>
         </row>
         <row r="81">
@@ -1229,7 +1229,7 @@
             <v xml:space="preserve"> Śląsk Wrocław</v>
           </cell>
           <cell r="C84" t="str">
-            <v>Remis</v>
+            <v>Śląsk Wrocław</v>
           </cell>
         </row>
         <row r="85">
@@ -1240,7 +1240,7 @@
             <v xml:space="preserve"> Wisła Płock</v>
           </cell>
           <cell r="C85" t="str">
-            <v>Remis</v>
+            <v>Zagłębie Lubin</v>
           </cell>
         </row>
         <row r="86">
@@ -1262,7 +1262,7 @@
             <v xml:space="preserve"> Jagielonia Białystok</v>
           </cell>
           <cell r="C87" t="str">
-            <v>Remis</v>
+            <v>Lechia Gdańsk</v>
           </cell>
         </row>
         <row r="88">
@@ -1295,7 +1295,7 @@
             <v xml:space="preserve"> Widzew Łódź</v>
           </cell>
           <cell r="C90" t="str">
-            <v>Remis</v>
+            <v>Stal Mielec</v>
           </cell>
         </row>
         <row r="91">
@@ -1350,7 +1350,7 @@
             <v xml:space="preserve"> Zagłębie Lubin</v>
           </cell>
           <cell r="C95" t="str">
-            <v>Zagłębie Lubin</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="96">
@@ -1361,7 +1361,7 @@
             <v xml:space="preserve"> Lechia Gdańsk</v>
           </cell>
           <cell r="C96" t="str">
-            <v>Lechia Gdańsk</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="97">
@@ -1383,7 +1383,7 @@
             <v xml:space="preserve"> Raków Częstochowa</v>
           </cell>
           <cell r="C98" t="str">
-            <v>Widzew Łódź</v>
+            <v>Raków Częstochowa</v>
           </cell>
         </row>
         <row r="99">
@@ -1394,7 +1394,7 @@
             <v xml:space="preserve"> Piast Gliwice</v>
           </cell>
           <cell r="C99" t="str">
-            <v>Remis</v>
+            <v>Wisła Płock</v>
           </cell>
         </row>
         <row r="100">
@@ -1405,7 +1405,7 @@
             <v xml:space="preserve"> Warta Poznań</v>
           </cell>
           <cell r="C100" t="str">
-            <v>Remis</v>
+            <v>Śląsk Wrocław</v>
           </cell>
         </row>
         <row r="101">
@@ -1416,7 +1416,7 @@
             <v xml:space="preserve"> Lechia Gdańsk</v>
           </cell>
           <cell r="C101" t="str">
-            <v>Lechia Gdańsk</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="102">
@@ -1438,7 +1438,7 @@
             <v xml:space="preserve"> Wisła Płock</v>
           </cell>
           <cell r="C103" t="str">
-            <v>Jagielonia Białystok</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="104">
@@ -1449,7 +1449,7 @@
             <v xml:space="preserve"> Korona Kielce</v>
           </cell>
           <cell r="C104" t="str">
-            <v>Korona Kielce</v>
+            <v>Zagłębie Lubin</v>
           </cell>
         </row>
         <row r="105">
@@ -1504,7 +1504,7 @@
             <v xml:space="preserve"> Górnik Zabrze</v>
           </cell>
           <cell r="C109" t="str">
-            <v>Śląsk Wrocław</v>
+            <v>Górnik Zabrze</v>
           </cell>
         </row>
         <row r="110">
@@ -1515,7 +1515,7 @@
             <v xml:space="preserve"> Stal Mielec</v>
           </cell>
           <cell r="C110" t="str">
-            <v>Remis</v>
+            <v>Korona Kielce</v>
           </cell>
         </row>
         <row r="111">
@@ -1570,7 +1570,7 @@
             <v xml:space="preserve"> Śląsk Wrocław</v>
           </cell>
           <cell r="C115" t="str">
-            <v>Remis</v>
+            <v>Śląsk Wrocław</v>
           </cell>
         </row>
         <row r="116">
@@ -1581,7 +1581,7 @@
             <v xml:space="preserve"> Jagielonia Białystok</v>
           </cell>
           <cell r="C116" t="str">
-            <v>Warta Poznań</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="117">
@@ -1603,7 +1603,7 @@
             <v xml:space="preserve"> Legia Warszawa</v>
           </cell>
           <cell r="C118" t="str">
-            <v>Legia Warszawa</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="119">
@@ -1625,7 +1625,7 @@
             <v xml:space="preserve"> Radomiak Radom</v>
           </cell>
           <cell r="C120" t="str">
-            <v>Piast Gliwice</v>
+            <v>Radomiak Radom</v>
           </cell>
         </row>
         <row r="121">
@@ -1647,7 +1647,7 @@
             <v xml:space="preserve"> Pogoń Szczecin</v>
           </cell>
           <cell r="C122" t="str">
-            <v>Remis</v>
+            <v>Pogoń Szczecin</v>
           </cell>
         </row>
         <row r="123">
@@ -1669,7 +1669,7 @@
             <v xml:space="preserve"> Wisła Płock</v>
           </cell>
           <cell r="C124" t="str">
-            <v>Stal Mielec</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="125">
@@ -1691,7 +1691,7 @@
             <v xml:space="preserve"> Miedź Legnica</v>
           </cell>
           <cell r="C126" t="str">
-            <v>Miedź Legnica</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="127">
@@ -1713,7 +1713,7 @@
             <v xml:space="preserve"> Legia Warszawa</v>
           </cell>
           <cell r="C128" t="str">
-            <v>Legia Warszawa</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="129">
@@ -1746,7 +1746,7 @@
             <v xml:space="preserve"> Raków Częstochowa</v>
           </cell>
           <cell r="C131" t="str">
-            <v>Raków Częstochowa</v>
+            <v>Lech Poznań</v>
           </cell>
         </row>
         <row r="132">
@@ -1757,7 +1757,7 @@
             <v xml:space="preserve"> Stal Mielec</v>
           </cell>
           <cell r="C132" t="str">
-            <v>Remis</v>
+            <v>Lechia Gdańsk</v>
           </cell>
         </row>
         <row r="133">
@@ -1768,7 +1768,7 @@
             <v xml:space="preserve"> Pogoń Szczecin</v>
           </cell>
           <cell r="C133" t="str">
-            <v>Pogoń Szczecin</v>
+            <v>Miedź Legnica</v>
           </cell>
         </row>
         <row r="134">
@@ -1790,7 +1790,7 @@
             <v xml:space="preserve"> Warta Poznań</v>
           </cell>
           <cell r="C135" t="str">
-            <v>Warta Poznań</v>
+            <v>Radomiak Radom</v>
           </cell>
         </row>
         <row r="136">
@@ -1823,7 +1823,7 @@
             <v xml:space="preserve"> Warta Poznań</v>
           </cell>
           <cell r="C138" t="str">
-            <v>Piast Gliwice</v>
+            <v>Warta Poznań</v>
           </cell>
         </row>
         <row r="139">
@@ -1845,7 +1845,7 @@
             <v xml:space="preserve"> Lechia Gdańsk</v>
           </cell>
           <cell r="C140" t="str">
-            <v>Lechia Gdańsk</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="141">
@@ -1856,7 +1856,7 @@
             <v xml:space="preserve"> Śląsk Wrocław</v>
           </cell>
           <cell r="C141" t="str">
-            <v>Śląsk Wrocław</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="142">
@@ -1867,7 +1867,7 @@
             <v xml:space="preserve"> Górnik Zabrze</v>
           </cell>
           <cell r="C142" t="str">
-            <v>Pogoń Szczecin</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="143">
@@ -1889,7 +1889,7 @@
             <v xml:space="preserve"> Zagłębie Lubin</v>
           </cell>
           <cell r="C144" t="str">
-            <v>Zagłębie Lubin</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="145">
@@ -1900,7 +1900,7 @@
             <v xml:space="preserve"> Radomiak Radom</v>
           </cell>
           <cell r="C145" t="str">
-            <v>Remis</v>
+            <v>Radomiak Radom</v>
           </cell>
         </row>
         <row r="146">
@@ -1922,7 +1922,7 @@
             <v xml:space="preserve"> Raków Częstochowa</v>
           </cell>
           <cell r="C147" t="str">
-            <v>Remis</v>
+            <v>Raków Częstochowa</v>
           </cell>
         </row>
         <row r="148">
@@ -1933,7 +1933,7 @@
             <v xml:space="preserve"> Widzew Łódź</v>
           </cell>
           <cell r="C148" t="str">
-            <v>Korona Kielce</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="149">
@@ -1944,7 +1944,7 @@
             <v xml:space="preserve"> Piast Gliwice</v>
           </cell>
           <cell r="C149" t="str">
-            <v>Remis</v>
+            <v>Piast Gliwice</v>
           </cell>
         </row>
         <row r="150">
@@ -1966,7 +1966,7 @@
             <v xml:space="preserve"> Pogoń Szczecin</v>
           </cell>
           <cell r="C151" t="str">
-            <v>Radomiak Radom</v>
+            <v>Pogoń Szczecin</v>
           </cell>
         </row>
         <row r="152">
@@ -1988,7 +1988,7 @@
             <v xml:space="preserve"> Cracovia</v>
           </cell>
           <cell r="C153" t="str">
-            <v>Wisła Płock</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="154">
@@ -2010,7 +2010,7 @@
             <v xml:space="preserve"> Górnik Zabrze</v>
           </cell>
           <cell r="C155" t="str">
-            <v>Remis</v>
+            <v>Górnik Zabrze</v>
           </cell>
         </row>
         <row r="156">
@@ -2021,7 +2021,7 @@
             <v xml:space="preserve"> Jagielonia Białystok</v>
           </cell>
           <cell r="C156" t="str">
-            <v>Piast Gliwice</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="157">
@@ -2054,7 +2054,7 @@
             <v xml:space="preserve"> Radomiak Radom</v>
           </cell>
           <cell r="C159" t="str">
-            <v>Miedź Legnica</v>
+            <v>Radomiak Radom</v>
           </cell>
         </row>
         <row r="160">
@@ -2098,7 +2098,7 @@
             <v xml:space="preserve"> Zagłębie Lubin</v>
           </cell>
           <cell r="C163" t="str">
-            <v>Zagłębie Lubin</v>
+            <v>Śląsk Wrocław</v>
           </cell>
         </row>
         <row r="164">
@@ -2109,7 +2109,7 @@
             <v xml:space="preserve"> Legia Warszawa</v>
           </cell>
           <cell r="C164" t="str">
-            <v>Legia Warszawa</v>
+            <v>Zagłębie Lubin</v>
           </cell>
         </row>
         <row r="165">
@@ -2164,7 +2164,7 @@
             <v xml:space="preserve"> Stal Mielec</v>
           </cell>
           <cell r="C169" t="str">
-            <v>Radomiak Radom</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="170">
@@ -2175,7 +2175,7 @@
             <v xml:space="preserve"> Piast Gliwice</v>
           </cell>
           <cell r="C170" t="str">
-            <v>Piast Gliwice</v>
+            <v>Raków Częstochowa</v>
           </cell>
         </row>
         <row r="171">
@@ -2197,7 +2197,7 @@
             <v xml:space="preserve"> Warta Poznań</v>
           </cell>
           <cell r="C172" t="str">
-            <v>Warta Poznań</v>
+            <v>Wisła Płock</v>
           </cell>
         </row>
         <row r="173">
@@ -2208,7 +2208,7 @@
             <v xml:space="preserve"> Pogoń Szczecin</v>
           </cell>
           <cell r="C173" t="str">
-            <v>Remis</v>
+            <v>Pogoń Szczecin</v>
           </cell>
         </row>
         <row r="174">
@@ -2252,7 +2252,7 @@
             <v xml:space="preserve"> Radomiak Radom</v>
           </cell>
           <cell r="C177" t="str">
-            <v>Radomiak Radom</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="178">
@@ -2263,7 +2263,7 @@
             <v xml:space="preserve"> Raków Częstochowa</v>
           </cell>
           <cell r="C178" t="str">
-            <v>Raków Częstochowa</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="179">
@@ -2296,7 +2296,7 @@
             <v xml:space="preserve"> Korona Kielce</v>
           </cell>
           <cell r="C181" t="str">
-            <v>Śląsk Wrocław</v>
+            <v>Korona Kielce</v>
           </cell>
         </row>
         <row r="182">
@@ -2307,7 +2307,7 @@
             <v xml:space="preserve"> Stal Mielec</v>
           </cell>
           <cell r="C182" t="str">
-            <v>Remis</v>
+            <v>Stal Mielec</v>
           </cell>
         </row>
         <row r="183">
@@ -2318,7 +2318,7 @@
             <v xml:space="preserve"> Legia Warszawa</v>
           </cell>
           <cell r="C183" t="str">
-            <v>Legia Warszawa</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="184">
@@ -2340,7 +2340,7 @@
             <v xml:space="preserve"> Zagłębie Lubin</v>
           </cell>
           <cell r="C185" t="str">
-            <v>Zagłębie Lubin</v>
+            <v>Lech Poznań</v>
           </cell>
         </row>
         <row r="186">
@@ -2395,7 +2395,7 @@
             <v xml:space="preserve"> Śląsk Wrocław</v>
           </cell>
           <cell r="C190" t="str">
-            <v>Widzew Łódź</v>
+            <v>Śląsk Wrocław</v>
           </cell>
         </row>
         <row r="191">
@@ -2406,7 +2406,7 @@
             <v xml:space="preserve"> Cracovia</v>
           </cell>
           <cell r="C191" t="str">
-            <v>Remis</v>
+            <v>Cracovia</v>
           </cell>
         </row>
         <row r="192">
@@ -2417,7 +2417,7 @@
             <v xml:space="preserve"> Raków Częstochowa</v>
           </cell>
           <cell r="C192" t="str">
-            <v>Jagielonia Białystok</v>
+            <v>Raków Częstochowa</v>
           </cell>
         </row>
         <row r="193">
@@ -2428,7 +2428,7 @@
             <v xml:space="preserve"> Miedź Legnica</v>
           </cell>
           <cell r="C193" t="str">
-            <v>Zagłębie Lubin</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="194">
@@ -2472,7 +2472,7 @@
             <v xml:space="preserve"> Korona Kielce</v>
           </cell>
           <cell r="C197" t="str">
-            <v>Korona Kielce</v>
+            <v>Warta Poznań</v>
           </cell>
         </row>
         <row r="198">
@@ -2483,7 +2483,7 @@
             <v xml:space="preserve"> Pogoń Szczecin</v>
           </cell>
           <cell r="C198" t="str">
-            <v>Pogoń Szczecin</v>
+            <v>Wisła Płock</v>
           </cell>
         </row>
         <row r="199">
@@ -2505,7 +2505,7 @@
             <v xml:space="preserve"> Śląsk Wrocław</v>
           </cell>
           <cell r="C200" t="str">
-            <v>Śląsk Wrocław</v>
+            <v>Cracovia</v>
           </cell>
         </row>
         <row r="201">
@@ -2571,7 +2571,7 @@
             <v xml:space="preserve"> Zagłębie Lubin</v>
           </cell>
           <cell r="C206" t="str">
-            <v>Remis</v>
+            <v>Zagłębie Lubin</v>
           </cell>
         </row>
         <row r="207">
@@ -2593,7 +2593,7 @@
             <v xml:space="preserve"> Warta Poznań</v>
           </cell>
           <cell r="C208" t="str">
-            <v>Remis</v>
+            <v>Widzew Łódź</v>
           </cell>
         </row>
         <row r="209">
@@ -2637,7 +2637,7 @@
             <v xml:space="preserve"> Radomiak Radom</v>
           </cell>
           <cell r="C212" t="str">
-            <v>Korona Kielce</v>
+            <v>Radomiak Radom</v>
           </cell>
         </row>
         <row r="213">
@@ -2659,7 +2659,7 @@
             <v xml:space="preserve"> Stal Mielec</v>
           </cell>
           <cell r="C214" t="str">
-            <v>Legia Warszawa</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="215">
@@ -2681,7 +2681,7 @@
             <v xml:space="preserve"> Cracovia</v>
           </cell>
           <cell r="C216" t="str">
-            <v>Remis</v>
+            <v>Warta Poznań</v>
           </cell>
         </row>
         <row r="217">
@@ -2703,7 +2703,7 @@
             <v xml:space="preserve"> Zagłębie Lubin</v>
           </cell>
           <cell r="C218" t="str">
-            <v>Zagłębie Lubin</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="219">
@@ -2714,7 +2714,7 @@
             <v xml:space="preserve"> Piast Gliwice</v>
           </cell>
           <cell r="C219" t="str">
-            <v>Remis</v>
+            <v>Piast Gliwice</v>
           </cell>
         </row>
         <row r="220">
@@ -2725,7 +2725,7 @@
             <v xml:space="preserve"> Wisła Płock</v>
           </cell>
           <cell r="C220" t="str">
-            <v>Remis</v>
+            <v>Górnik Zabrze</v>
           </cell>
         </row>
         <row r="221">
@@ -2747,7 +2747,7 @@
             <v xml:space="preserve"> Legia Warszawa</v>
           </cell>
           <cell r="C222" t="str">
-            <v>Remis</v>
+            <v>Legia Warszawa</v>
           </cell>
         </row>
         <row r="223">
@@ -2769,7 +2769,7 @@
             <v xml:space="preserve"> Lechia Gdańsk</v>
           </cell>
           <cell r="C224" t="str">
-            <v>Lechia Gdańsk</v>
+            <v>Warta Poznań</v>
           </cell>
         </row>
         <row r="225">
@@ -2791,7 +2791,7 @@
             <v xml:space="preserve"> Stal Mielec</v>
           </cell>
           <cell r="C226" t="str">
-            <v>Stal Mielec</v>
+            <v>Śląsk Wrocław</v>
           </cell>
         </row>
         <row r="227">
@@ -2802,7 +2802,7 @@
             <v xml:space="preserve"> Widzew Łódź</v>
           </cell>
           <cell r="C227" t="str">
-            <v>Cracovia</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="228">
@@ -2813,7 +2813,7 @@
             <v xml:space="preserve"> Górnik Zabrze</v>
           </cell>
           <cell r="C228" t="str">
-            <v>Remis</v>
+            <v>Piast Gliwice</v>
           </cell>
         </row>
         <row r="229">
@@ -2824,7 +2824,7 @@
             <v xml:space="preserve"> Warta Poznań</v>
           </cell>
           <cell r="C229" t="str">
-            <v>Remis</v>
+            <v>Warta Poznań</v>
           </cell>
         </row>
         <row r="230">
@@ -2835,7 +2835,7 @@
             <v xml:space="preserve"> Miedź Legnica</v>
           </cell>
           <cell r="C230" t="str">
-            <v>Remis</v>
+            <v>Korona Kielce</v>
           </cell>
         </row>
         <row r="231">
@@ -2868,7 +2868,7 @@
             <v xml:space="preserve"> Raków Częstochowa</v>
           </cell>
           <cell r="C233" t="str">
-            <v>Remis</v>
+            <v>Legia Warszawa</v>
           </cell>
         </row>
         <row r="234">
@@ -2890,7 +2890,7 @@
             <v xml:space="preserve"> Radomiak Radom</v>
           </cell>
           <cell r="C235" t="str">
-            <v>Radomiak Radom</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="236">
@@ -2923,7 +2923,7 @@
             <v xml:space="preserve"> Legia Warszawa</v>
           </cell>
           <cell r="C238" t="str">
-            <v>Legia Warszawa</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="239">
@@ -2934,7 +2934,7 @@
             <v xml:space="preserve"> Korona Kielce</v>
           </cell>
           <cell r="C239" t="str">
-            <v>Remis</v>
+            <v>Korona Kielce</v>
           </cell>
         </row>
         <row r="240">
@@ -2956,7 +2956,7 @@
             <v xml:space="preserve"> Raków Częstochowa</v>
           </cell>
           <cell r="C241" t="str">
-            <v>Radomiak Radom</v>
+            <v>Raków Częstochowa</v>
           </cell>
         </row>
         <row r="242">
@@ -2967,7 +2967,7 @@
             <v xml:space="preserve"> Stal Mielec</v>
           </cell>
           <cell r="C242" t="str">
-            <v>Stal Mielec</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="243">
@@ -2978,7 +2978,7 @@
             <v xml:space="preserve"> Zagłębie Lubin</v>
           </cell>
           <cell r="C243" t="str">
-            <v>Wisła Płock</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="244">
@@ -2989,7 +2989,7 @@
             <v xml:space="preserve"> Piast Gliwice</v>
           </cell>
           <cell r="C244" t="str">
-            <v>Piast Gliwice</v>
+            <v>Śląsk Wrocław</v>
           </cell>
         </row>
         <row r="245">
@@ -3033,7 +3033,7 @@
             <v xml:space="preserve"> Jagielonia Białystok</v>
           </cell>
           <cell r="C248" t="str">
-            <v>Remis</v>
+            <v>Korona Kielce</v>
           </cell>
         </row>
         <row r="249">
@@ -3055,7 +3055,7 @@
             <v xml:space="preserve"> Lech Poznań</v>
           </cell>
           <cell r="C250" t="str">
-            <v>Lech Poznań</v>
+            <v>Legia Warszawa</v>
           </cell>
         </row>
         <row r="251">
@@ -3077,7 +3077,7 @@
             <v xml:space="preserve"> Miedź Legnica</v>
           </cell>
           <cell r="C252" t="str">
-            <v>Stal Mielec</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="253">
@@ -3088,7 +3088,7 @@
             <v xml:space="preserve"> Śląsk Wrocław</v>
           </cell>
           <cell r="C253" t="str">
-            <v>Remis</v>
+            <v>Śląsk Wrocław</v>
           </cell>
         </row>
         <row r="254">
@@ -3099,7 +3099,7 @@
             <v xml:space="preserve"> Zagłębie Lubin</v>
           </cell>
           <cell r="C254" t="str">
-            <v>Remis</v>
+            <v>Zagłębie Lubin</v>
           </cell>
         </row>
         <row r="255">
@@ -3110,7 +3110,7 @@
             <v xml:space="preserve"> Cracovia</v>
           </cell>
           <cell r="C255" t="str">
-            <v>Cracovia</v>
+            <v>Lechia Gdańsk</v>
           </cell>
         </row>
         <row r="256">
@@ -3165,7 +3165,7 @@
             <v xml:space="preserve"> Legia Warszawa</v>
           </cell>
           <cell r="C260" t="str">
-            <v>Warta Poznań</v>
+            <v>Legia Warszawa</v>
           </cell>
         </row>
         <row r="261">
@@ -3176,7 +3176,7 @@
             <v xml:space="preserve"> Piast Gliwice</v>
           </cell>
           <cell r="C261" t="str">
-            <v>Piast Gliwice</v>
+            <v>Widzew Łódź</v>
           </cell>
         </row>
         <row r="262">
@@ -3187,7 +3187,7 @@
             <v xml:space="preserve"> Jagielonia Białystok</v>
           </cell>
           <cell r="C262" t="str">
-            <v>Jagielonia Białystok</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="263">
@@ -3198,7 +3198,7 @@
             <v xml:space="preserve"> Miedź Legnica</v>
           </cell>
           <cell r="C263" t="str">
-            <v>Miedź Legnica</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="264">
@@ -3209,7 +3209,7 @@
             <v xml:space="preserve"> Pogoń Szczecin</v>
           </cell>
           <cell r="C264" t="str">
-            <v>Pogoń Szczecin</v>
+            <v>Piast Gliwice</v>
           </cell>
         </row>
         <row r="265">
@@ -3275,7 +3275,7 @@
             <v xml:space="preserve"> Korona Kielce</v>
           </cell>
           <cell r="C270" t="str">
-            <v>Korona Kielce</v>
+            <v>Stal Mielec</v>
           </cell>
         </row>
         <row r="271">
@@ -3286,7 +3286,7 @@
             <v xml:space="preserve"> Radomiak Radom</v>
           </cell>
           <cell r="C271" t="str">
-            <v>Remis</v>
+            <v>Śląsk Wrocław</v>
           </cell>
         </row>
         <row r="272">
@@ -3297,7 +3297,7 @@
             <v xml:space="preserve"> Śląsk Wrocław</v>
           </cell>
           <cell r="C272" t="str">
-            <v>Jagielonia Białystok</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="273">
@@ -3319,7 +3319,7 @@
             <v xml:space="preserve"> Cracovia</v>
           </cell>
           <cell r="C274" t="str">
-            <v>Lech Poznań</v>
+            <v>Cracovia</v>
           </cell>
         </row>
         <row r="275">
@@ -3341,7 +3341,7 @@
             <v xml:space="preserve"> Widzew Łódź</v>
           </cell>
           <cell r="C276" t="str">
-            <v>Remis</v>
+            <v>Miedź Legnica</v>
           </cell>
         </row>
         <row r="277">
@@ -3374,7 +3374,7 @@
             <v xml:space="preserve"> Piast Gliwice</v>
           </cell>
           <cell r="C279" t="str">
-            <v>Piast Gliwice</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="280">
@@ -3396,7 +3396,7 @@
             <v xml:space="preserve"> Zagłębie Lubin</v>
           </cell>
           <cell r="C281" t="str">
-            <v>Cracovia</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="282">
@@ -3418,7 +3418,7 @@
             <v xml:space="preserve"> Jagielonia Białystok</v>
           </cell>
           <cell r="C283" t="str">
-            <v>Legia Warszawa</v>
+            <v>Jagielonia Białystok</v>
           </cell>
         </row>
         <row r="284">
@@ -3440,7 +3440,7 @@
             <v xml:space="preserve"> Lech Poznań</v>
           </cell>
           <cell r="C285" t="str">
-            <v>Lech Poznań</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="286">
@@ -3473,7 +3473,7 @@
             <v xml:space="preserve"> Górnik Zabrze</v>
           </cell>
           <cell r="C288" t="str">
-            <v>Remis</v>
+            <v>Górnik Zabrze</v>
           </cell>
         </row>
         <row r="289">
@@ -3484,7 +3484,7 @@
             <v xml:space="preserve"> Wisła Płock</v>
           </cell>
           <cell r="C289" t="str">
-            <v>Śląsk Wrocław</v>
+            <v>Wisła Płock</v>
           </cell>
         </row>
         <row r="290">
@@ -3495,7 +3495,7 @@
             <v xml:space="preserve"> Cracovia</v>
           </cell>
           <cell r="C290" t="str">
-            <v>Cracovia</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="291">
@@ -3528,7 +3528,7 @@
             <v xml:space="preserve"> Legia Warszawa</v>
           </cell>
           <cell r="C293" t="str">
-            <v>Remis</v>
+            <v>Lechia Gdańsk</v>
           </cell>
         </row>
         <row r="294">
@@ -3550,7 +3550,7 @@
             <v xml:space="preserve"> Widzew Łódź</v>
           </cell>
           <cell r="C295" t="str">
-            <v>Radomiak Radom</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="296">
@@ -3561,7 +3561,7 @@
             <v xml:space="preserve"> Piast Gliwice</v>
           </cell>
           <cell r="C296" t="str">
-            <v>Warta Poznań</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="297">
@@ -3583,7 +3583,7 @@
             <v xml:space="preserve"> Miedź Legnica</v>
           </cell>
           <cell r="C298" t="str">
-            <v>Remis</v>
+            <v>Śląsk Wrocław</v>
           </cell>
         </row>
         <row r="299">
@@ -3594,7 +3594,7 @@
             <v xml:space="preserve"> Wisła Płock</v>
           </cell>
           <cell r="C299" t="str">
-            <v>Wisła Płock</v>
+            <v>Cracovia</v>
           </cell>
         </row>
         <row r="300">
@@ -3638,7 +3638,7 @@
             <v xml:space="preserve"> Górnik Zabrze</v>
           </cell>
           <cell r="C303" t="str">
-            <v>Górnik Zabrze</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="304">
@@ -3649,7 +3649,7 @@
             <v xml:space="preserve"> Radomiak Radom</v>
           </cell>
           <cell r="C304" t="str">
-            <v>Pogoń Szczecin</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="305">
@@ -3660,7 +3660,7 @@
             <v xml:space="preserve"> Zagłębie Lubin</v>
           </cell>
           <cell r="C305" t="str">
-            <v>Zagłębie Lubin</v>
+            <v>Raków Częstochowa</v>
           </cell>
         </row>
         <row r="306">
@@ -3671,7 +3671,7 @@
             <v xml:space="preserve"> Warta Poznań</v>
           </cell>
           <cell r="C306" t="str">
-            <v>Remis</v>
+            <v>Warta Poznań</v>
           </cell>
         </row>
         <row r="307">
@@ -3991,7 +3991,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F11"/>
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4028,23 +4028,23 @@
       </c>
       <c r="B2" s="9">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A2)</f>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C2" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A2 &amp; "*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A2 &amp; "*")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="9">
         <f t="shared" ref="E2:E19" si="0">34-SUM(B2:D2)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F2" s="10">
         <f t="shared" ref="F2:F19" si="1">(B2*3)+((C2+D2)*1)</f>
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4053,7 +4053,7 @@
       </c>
       <c r="B3" s="9">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A3)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A3 &amp; "*")</f>
@@ -4065,11 +4065,11 @@
       </c>
       <c r="E3" s="9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="10">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4078,23 +4078,23 @@
       </c>
       <c r="B4" s="9">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A4)</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A4 &amp; "*")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A4 &amp; "*")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" s="10">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4103,7 +4103,7 @@
       </c>
       <c r="B5" s="9">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A5)</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A5 &amp; "*")</f>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="D5" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A5 &amp; "*")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="0"/>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="F5" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4128,15 +4128,15 @@
       </c>
       <c r="B6" s="9">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A6)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A6 &amp; "*")</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A6 &amp; "*")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="0"/>
@@ -4144,7 +4144,7 @@
       </c>
       <c r="F6" s="10">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4153,23 +4153,23 @@
       </c>
       <c r="B7" s="9">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A7)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A7 &amp; "*")</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D7" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A7 &amp; "*")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="10">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4203,15 +4203,15 @@
       </c>
       <c r="B9" s="9">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A9)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A9 &amp; "*")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A9 &amp; "*")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="0"/>
@@ -4219,7 +4219,7 @@
       </c>
       <c r="F9" s="10">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4228,23 +4228,23 @@
       </c>
       <c r="B10" s="9">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A10)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A10 &amp; "*")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A10 &amp; "*")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F10" s="10">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4253,23 +4253,23 @@
       </c>
       <c r="B11" s="5">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A11)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="5">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A11 &amp; "*")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="5">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A11 &amp; "*")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4278,23 +4278,23 @@
       </c>
       <c r="B12" s="7">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A12)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C12" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A12 &amp; "*")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A12 &amp; "*")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4303,11 +4303,11 @@
       </c>
       <c r="B13" s="7">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A13)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C13" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A13 &amp; "*")</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A13 &amp; "*")</f>
@@ -4315,11 +4315,11 @@
       </c>
       <c r="E13" s="7">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4332,19 +4332,19 @@
       </c>
       <c r="C14" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A14 &amp; "*")</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A14 &amp; "*")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4361,15 +4361,15 @@
       </c>
       <c r="D15" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A15 &amp; "*")</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F15" s="7">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4378,11 +4378,11 @@
       </c>
       <c r="B16" s="7">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A16)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A16 &amp; "*")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D16" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A16 &amp; "*")</f>
@@ -4390,11 +4390,11 @@
       </c>
       <c r="E16" s="7">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16" s="7">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4403,23 +4403,23 @@
       </c>
       <c r="B17" s="7">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A17)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A17 &amp; "*")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A17 &amp; "*")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4428,19 +4428,19 @@
       </c>
       <c r="B18" s="7">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A18)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A18 &amp; "*")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A18 &amp; "*")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="7">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F18" s="7">
         <f t="shared" si="1"/>
@@ -4453,23 +4453,23 @@
       </c>
       <c r="B19" s="7">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A19)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A19 &amp; "*")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A19 &amp; "*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F19" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Wynik końcowy na koniec sezonu.xlsx
+++ b/Wynik końcowy na koniec sezonu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projekt_na_studia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DB6877-4D88-4843-8F8F-4CF333991502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06C4376-CD83-4A46-AE25-BD723419507D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="28680" windowHeight="15420" xr2:uid="{ECB29434-B3BC-4FD8-9A04-DB96BF556489}"/>
+    <workbookView xWindow="1995" yWindow="3870" windowWidth="28680" windowHeight="15420" xr2:uid="{ECB29434-B3BC-4FD8-9A04-DB96BF556489}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -327,7 +327,7 @@
             <v>Piast Gliwice</v>
           </cell>
           <cell r="C2" t="str">
-            <v>Remis</v>
+            <v>Jagielonia Białystok</v>
           </cell>
         </row>
         <row r="3">
@@ -371,7 +371,7 @@
             <v xml:space="preserve"> Cracovia</v>
           </cell>
           <cell r="C6" t="str">
-            <v>Remis</v>
+            <v>Cracovia</v>
           </cell>
         </row>
         <row r="7">
@@ -448,7 +448,7 @@
             <v xml:space="preserve"> Widzew Łódź</v>
           </cell>
           <cell r="C13" t="str">
-            <v>Jagielonia Białystok</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="14">
@@ -459,7 +459,7 @@
             <v xml:space="preserve"> Górnik Zabrze</v>
           </cell>
           <cell r="C14" t="str">
-            <v>Remis</v>
+            <v>Lechia Gdańsk</v>
           </cell>
         </row>
         <row r="15">
@@ -470,7 +470,7 @@
             <v>Zagłębie Lubin</v>
           </cell>
           <cell r="C15" t="str">
-            <v>Remis</v>
+            <v>Legia Warszawa</v>
           </cell>
         </row>
         <row r="16">
@@ -547,7 +547,7 @@
             <v>Śląsk Wrocław</v>
           </cell>
           <cell r="C22" t="str">
-            <v>Korona Kielce</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="23">
@@ -569,7 +569,7 @@
             <v>Warta Poznań</v>
           </cell>
           <cell r="C24" t="str">
-            <v>Miedź Legnica</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="25">
@@ -591,7 +591,7 @@
             <v>Górnik Zabrze</v>
           </cell>
           <cell r="C26" t="str">
-            <v>Radomiak Radom</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="27">
@@ -635,7 +635,7 @@
             <v>Lech Poznań</v>
           </cell>
           <cell r="C30" t="str">
-            <v>Zagłębie Lubin</v>
+            <v>Lech Poznań</v>
           </cell>
         </row>
         <row r="31">
@@ -657,7 +657,7 @@
             <v>Piast Gliwice</v>
           </cell>
           <cell r="C32" t="str">
-            <v>Legia Warszawa</v>
+            <v>Piast Gliwice</v>
           </cell>
         </row>
         <row r="33">
@@ -679,7 +679,7 @@
             <v>Cracovia</v>
           </cell>
           <cell r="C34" t="str">
-            <v>Cracovia</v>
+            <v>Stal Mielec</v>
           </cell>
         </row>
         <row r="35">
@@ -712,7 +712,7 @@
             <v>Widzew Łódź</v>
           </cell>
           <cell r="C37" t="str">
-            <v>Śląsk Wrocław</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="38">
@@ -723,7 +723,7 @@
             <v xml:space="preserve"> Piast Gliwice</v>
           </cell>
           <cell r="C38" t="str">
-            <v>Piast Gliwice</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="39">
@@ -734,7 +734,7 @@
             <v>Warta Poznań</v>
           </cell>
           <cell r="C39" t="str">
-            <v>Remis</v>
+            <v>Korona Kielce</v>
           </cell>
         </row>
         <row r="40">
@@ -745,7 +745,7 @@
             <v>Śląsk Wrocław</v>
           </cell>
           <cell r="C40" t="str">
-            <v>Śląsk Wrocław</v>
+            <v>Lech Poznań</v>
           </cell>
         </row>
         <row r="41">
@@ -756,7 +756,7 @@
             <v>Zagłębie Lubin</v>
           </cell>
           <cell r="C41" t="str">
-            <v>Zagłębie Lubin</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="42">
@@ -822,7 +822,7 @@
             <v xml:space="preserve"> Stal Mielec</v>
           </cell>
           <cell r="C47" t="str">
-            <v>Stal Mielec</v>
+            <v>Piast Gliwice</v>
           </cell>
         </row>
         <row r="48">
@@ -844,7 +844,7 @@
             <v xml:space="preserve"> Radomiak Radom</v>
           </cell>
           <cell r="C49" t="str">
-            <v>Remis</v>
+            <v>Zagłębie Lubin</v>
           </cell>
         </row>
         <row r="50">
@@ -855,7 +855,7 @@
             <v xml:space="preserve"> Lech Poznań</v>
           </cell>
           <cell r="C50" t="str">
-            <v>Lech Poznań</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="51">
@@ -877,7 +877,7 @@
             <v xml:space="preserve"> Pogoń Szczecin</v>
           </cell>
           <cell r="C52" t="str">
-            <v>Pogoń Szczecin</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="53">
@@ -888,7 +888,7 @@
             <v xml:space="preserve"> Widzew Łódź</v>
           </cell>
           <cell r="C53" t="str">
-            <v>Widzew Łódź</v>
+            <v>Warta Poznań</v>
           </cell>
         </row>
         <row r="54">
@@ -899,7 +899,7 @@
             <v xml:space="preserve"> Korona Kielce</v>
           </cell>
           <cell r="C54" t="str">
-            <v>Wisła Płock</v>
+            <v>Korona Kielce</v>
           </cell>
         </row>
         <row r="55">
@@ -921,7 +921,7 @@
             <v xml:space="preserve"> Warta Poznań</v>
           </cell>
           <cell r="C56" t="str">
-            <v>Cracovia</v>
+            <v>Warta Poznań</v>
           </cell>
         </row>
         <row r="57">
@@ -954,7 +954,7 @@
             <v xml:space="preserve"> Jagielonia Białystok</v>
           </cell>
           <cell r="C59" t="str">
-            <v>Jagielonia Białystok</v>
+            <v>Górnik Zabrze</v>
           </cell>
         </row>
         <row r="60">
@@ -1031,7 +1031,7 @@
             <v xml:space="preserve"> Miedź Legnica</v>
           </cell>
           <cell r="C66" t="str">
-            <v>Miedź Legnica</v>
+            <v>Piast Gliwice</v>
           </cell>
         </row>
         <row r="67">
@@ -1042,7 +1042,7 @@
             <v xml:space="preserve"> Jagielonia Białystok</v>
           </cell>
           <cell r="C67" t="str">
-            <v>Zagłębie Lubin</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="68">
@@ -1053,7 +1053,7 @@
             <v xml:space="preserve"> Pogoń Szczecin</v>
           </cell>
           <cell r="C68" t="str">
-            <v>Remis</v>
+            <v>Pogoń Szczecin</v>
           </cell>
         </row>
         <row r="69">
@@ -1097,7 +1097,7 @@
             <v xml:space="preserve"> Śląsk Wrocław</v>
           </cell>
           <cell r="C72" t="str">
-            <v>Remis</v>
+            <v>Śląsk Wrocław</v>
           </cell>
         </row>
         <row r="73">
@@ -1108,7 +1108,7 @@
             <v xml:space="preserve"> Górnik Zabrze</v>
           </cell>
           <cell r="C73" t="str">
-            <v>Wisła Płock</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="74">
@@ -1119,7 +1119,7 @@
             <v xml:space="preserve"> Stal Mielec</v>
           </cell>
           <cell r="C74" t="str">
-            <v>Jagielonia Białystok</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="75">
@@ -1130,7 +1130,7 @@
             <v xml:space="preserve"> Korona Kielce</v>
           </cell>
           <cell r="C75" t="str">
-            <v>Remis</v>
+            <v>Korona Kielce</v>
           </cell>
         </row>
         <row r="76">
@@ -1152,7 +1152,7 @@
             <v xml:space="preserve"> Lech Poznań</v>
           </cell>
           <cell r="C77" t="str">
-            <v>Lech Poznań</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="78">
@@ -1185,7 +1185,7 @@
             <v xml:space="preserve"> Zagłębie Lubin</v>
           </cell>
           <cell r="C80" t="str">
-            <v>Warta Poznań</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="81">
@@ -1196,7 +1196,7 @@
             <v xml:space="preserve"> Cracovia</v>
           </cell>
           <cell r="C81" t="str">
-            <v>Cracovia</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="82">
@@ -1229,7 +1229,7 @@
             <v xml:space="preserve"> Śląsk Wrocław</v>
           </cell>
           <cell r="C84" t="str">
-            <v>Śląsk Wrocław</v>
+            <v>Piast Gliwice</v>
           </cell>
         </row>
         <row r="85">
@@ -1240,7 +1240,7 @@
             <v xml:space="preserve"> Wisła Płock</v>
           </cell>
           <cell r="C85" t="str">
-            <v>Zagłębie Lubin</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="86">
@@ -1251,7 +1251,7 @@
             <v xml:space="preserve"> Górnik Zabrze</v>
           </cell>
           <cell r="C86" t="str">
-            <v>Górnik Zabrze</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="87">
@@ -1328,7 +1328,7 @@
             <v xml:space="preserve"> Legia Warszawa</v>
           </cell>
           <cell r="C93" t="str">
-            <v>Remis</v>
+            <v>Lech Poznań</v>
           </cell>
         </row>
         <row r="94">
@@ -1350,7 +1350,7 @@
             <v xml:space="preserve"> Zagłębie Lubin</v>
           </cell>
           <cell r="C95" t="str">
-            <v>Remis</v>
+            <v>Górnik Zabrze</v>
           </cell>
         </row>
         <row r="96">
@@ -1361,7 +1361,7 @@
             <v xml:space="preserve"> Lechia Gdańsk</v>
           </cell>
           <cell r="C96" t="str">
-            <v>Remis</v>
+            <v>Lechia Gdańsk</v>
           </cell>
         </row>
         <row r="97">
@@ -1394,7 +1394,7 @@
             <v xml:space="preserve"> Piast Gliwice</v>
           </cell>
           <cell r="C99" t="str">
-            <v>Wisła Płock</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="100">
@@ -1427,7 +1427,7 @@
             <v xml:space="preserve"> Widzew Łódź</v>
           </cell>
           <cell r="C102" t="str">
-            <v>Widzew Łódź</v>
+            <v>Piast Gliwice</v>
           </cell>
         </row>
         <row r="103">
@@ -1438,7 +1438,7 @@
             <v xml:space="preserve"> Wisła Płock</v>
           </cell>
           <cell r="C103" t="str">
-            <v>Remis</v>
+            <v>Wisła Płock</v>
           </cell>
         </row>
         <row r="104">
@@ -1515,7 +1515,7 @@
             <v xml:space="preserve"> Stal Mielec</v>
           </cell>
           <cell r="C110" t="str">
-            <v>Korona Kielce</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="111">
@@ -1537,7 +1537,7 @@
             <v xml:space="preserve"> Cracovia</v>
           </cell>
           <cell r="C112" t="str">
-            <v>Cracovia</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="113">
@@ -1581,7 +1581,7 @@
             <v xml:space="preserve"> Jagielonia Białystok</v>
           </cell>
           <cell r="C116" t="str">
-            <v>Remis</v>
+            <v>Jagielonia Białystok</v>
           </cell>
         </row>
         <row r="117">
@@ -1592,7 +1592,7 @@
             <v xml:space="preserve"> Zagłębie Lubin</v>
           </cell>
           <cell r="C117" t="str">
-            <v>Zagłębie Lubin</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="118">
@@ -1603,7 +1603,7 @@
             <v xml:space="preserve"> Legia Warszawa</v>
           </cell>
           <cell r="C118" t="str">
-            <v>Remis</v>
+            <v>Legia Warszawa</v>
           </cell>
         </row>
         <row r="119">
@@ -1647,7 +1647,7 @@
             <v xml:space="preserve"> Pogoń Szczecin</v>
           </cell>
           <cell r="C122" t="str">
-            <v>Pogoń Szczecin</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="123">
@@ -1680,7 +1680,7 @@
             <v xml:space="preserve"> Górnik Zabrze</v>
           </cell>
           <cell r="C125" t="str">
-            <v>Remis</v>
+            <v>Górnik Zabrze</v>
           </cell>
         </row>
         <row r="126">
@@ -1702,7 +1702,7 @@
             <v xml:space="preserve"> Jagielonia Białystok</v>
           </cell>
           <cell r="C127" t="str">
-            <v>Jagielonia Białystok</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="128">
@@ -1713,7 +1713,7 @@
             <v xml:space="preserve"> Legia Warszawa</v>
           </cell>
           <cell r="C128" t="str">
-            <v>Remis</v>
+            <v>Legia Warszawa</v>
           </cell>
         </row>
         <row r="129">
@@ -1724,7 +1724,7 @@
             <v xml:space="preserve"> Cracovia</v>
           </cell>
           <cell r="C129" t="str">
-            <v>Remis</v>
+            <v>Zagłębie Lubin</v>
           </cell>
         </row>
         <row r="130">
@@ -1735,7 +1735,7 @@
             <v xml:space="preserve"> Piast Gliwice</v>
           </cell>
           <cell r="C130" t="str">
-            <v>Korona Kielce</v>
+            <v>Piast Gliwice</v>
           </cell>
         </row>
         <row r="131">
@@ -1768,7 +1768,7 @@
             <v xml:space="preserve"> Pogoń Szczecin</v>
           </cell>
           <cell r="C133" t="str">
-            <v>Miedź Legnica</v>
+            <v>Pogoń Szczecin</v>
           </cell>
         </row>
         <row r="134">
@@ -1790,7 +1790,7 @@
             <v xml:space="preserve"> Warta Poznań</v>
           </cell>
           <cell r="C135" t="str">
-            <v>Radomiak Radom</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="136">
@@ -1801,7 +1801,7 @@
             <v xml:space="preserve"> Śląsk Wrocław</v>
           </cell>
           <cell r="C136" t="str">
-            <v>Śląsk Wrocław</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="137">
@@ -1812,7 +1812,7 @@
             <v xml:space="preserve"> Jagielonia Białystok</v>
           </cell>
           <cell r="C137" t="str">
-            <v>Cracovia</v>
+            <v>Jagielonia Białystok</v>
           </cell>
         </row>
         <row r="138">
@@ -1823,7 +1823,7 @@
             <v xml:space="preserve"> Warta Poznań</v>
           </cell>
           <cell r="C138" t="str">
-            <v>Warta Poznań</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="139">
@@ -1845,7 +1845,7 @@
             <v xml:space="preserve"> Lechia Gdańsk</v>
           </cell>
           <cell r="C140" t="str">
-            <v>Remis</v>
+            <v>Lechia Gdańsk</v>
           </cell>
         </row>
         <row r="141">
@@ -1856,7 +1856,7 @@
             <v xml:space="preserve"> Śląsk Wrocław</v>
           </cell>
           <cell r="C141" t="str">
-            <v>Remis</v>
+            <v>Śląsk Wrocław</v>
           </cell>
         </row>
         <row r="142">
@@ -1889,7 +1889,7 @@
             <v xml:space="preserve"> Zagłębie Lubin</v>
           </cell>
           <cell r="C144" t="str">
-            <v>Remis</v>
+            <v>Zagłębie Lubin</v>
           </cell>
         </row>
         <row r="145">
@@ -1900,7 +1900,7 @@
             <v xml:space="preserve"> Radomiak Radom</v>
           </cell>
           <cell r="C145" t="str">
-            <v>Radomiak Radom</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="146">
@@ -1911,7 +1911,7 @@
             <v xml:space="preserve"> Lech Poznań</v>
           </cell>
           <cell r="C146" t="str">
-            <v>Lech Poznań</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="147">
@@ -1933,7 +1933,7 @@
             <v xml:space="preserve"> Widzew Łódź</v>
           </cell>
           <cell r="C148" t="str">
-            <v>Remis</v>
+            <v>Widzew Łódź</v>
           </cell>
         </row>
         <row r="149">
@@ -1944,7 +1944,7 @@
             <v xml:space="preserve"> Piast Gliwice</v>
           </cell>
           <cell r="C149" t="str">
-            <v>Piast Gliwice</v>
+            <v>Lechia Gdańsk</v>
           </cell>
         </row>
         <row r="150">
@@ -1988,7 +1988,7 @@
             <v xml:space="preserve"> Cracovia</v>
           </cell>
           <cell r="C153" t="str">
-            <v>Remis</v>
+            <v>Cracovia</v>
           </cell>
         </row>
         <row r="154">
@@ -2010,7 +2010,7 @@
             <v xml:space="preserve"> Górnik Zabrze</v>
           </cell>
           <cell r="C155" t="str">
-            <v>Górnik Zabrze</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="156">
@@ -2021,7 +2021,7 @@
             <v xml:space="preserve"> Jagielonia Białystok</v>
           </cell>
           <cell r="C156" t="str">
-            <v>Remis</v>
+            <v>Jagielonia Białystok</v>
           </cell>
         </row>
         <row r="157">
@@ -2032,7 +2032,7 @@
             <v xml:space="preserve"> Wisła Płock</v>
           </cell>
           <cell r="C157" t="str">
-            <v>Lechia Gdańsk</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="158">
@@ -2054,7 +2054,7 @@
             <v xml:space="preserve"> Radomiak Radom</v>
           </cell>
           <cell r="C159" t="str">
-            <v>Radomiak Radom</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="160">
@@ -2076,7 +2076,7 @@
             <v xml:space="preserve"> Raków Częstochowa</v>
           </cell>
           <cell r="C161" t="str">
-            <v>Raków Częstochowa</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="162">
@@ -2098,7 +2098,7 @@
             <v xml:space="preserve"> Zagłębie Lubin</v>
           </cell>
           <cell r="C163" t="str">
-            <v>Śląsk Wrocław</v>
+            <v>Zagłębie Lubin</v>
           </cell>
         </row>
         <row r="164">
@@ -2109,7 +2109,7 @@
             <v xml:space="preserve"> Legia Warszawa</v>
           </cell>
           <cell r="C164" t="str">
-            <v>Zagłębie Lubin</v>
+            <v>Legia Warszawa</v>
           </cell>
         </row>
         <row r="165">
@@ -2120,7 +2120,7 @@
             <v xml:space="preserve"> Cracovia</v>
           </cell>
           <cell r="C165" t="str">
-            <v>Cracovia</v>
+            <v>Korona Kielce</v>
           </cell>
         </row>
         <row r="166">
@@ -2164,7 +2164,7 @@
             <v xml:space="preserve"> Stal Mielec</v>
           </cell>
           <cell r="C169" t="str">
-            <v>Remis</v>
+            <v>Stal Mielec</v>
           </cell>
         </row>
         <row r="170">
@@ -2186,7 +2186,7 @@
             <v xml:space="preserve"> Jagielonia Białystok</v>
           </cell>
           <cell r="C171" t="str">
-            <v>Jagielonia Białystok</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="172">
@@ -2197,7 +2197,7 @@
             <v xml:space="preserve"> Warta Poznań</v>
           </cell>
           <cell r="C172" t="str">
-            <v>Wisła Płock</v>
+            <v>Warta Poznań</v>
           </cell>
         </row>
         <row r="173">
@@ -2241,7 +2241,7 @@
             <v xml:space="preserve"> Cracovia</v>
           </cell>
           <cell r="C176" t="str">
-            <v>Remis</v>
+            <v>Legia Warszawa</v>
           </cell>
         </row>
         <row r="177">
@@ -2263,7 +2263,7 @@
             <v xml:space="preserve"> Raków Częstochowa</v>
           </cell>
           <cell r="C178" t="str">
-            <v>Remis</v>
+            <v>Raków Częstochowa</v>
           </cell>
         </row>
         <row r="179">
@@ -2296,7 +2296,7 @@
             <v xml:space="preserve"> Korona Kielce</v>
           </cell>
           <cell r="C181" t="str">
-            <v>Korona Kielce</v>
+            <v>Śląsk Wrocław</v>
           </cell>
         </row>
         <row r="182">
@@ -2307,7 +2307,7 @@
             <v xml:space="preserve"> Stal Mielec</v>
           </cell>
           <cell r="C182" t="str">
-            <v>Stal Mielec</v>
+            <v>Cracovia</v>
           </cell>
         </row>
         <row r="183">
@@ -2318,7 +2318,7 @@
             <v xml:space="preserve"> Legia Warszawa</v>
           </cell>
           <cell r="C183" t="str">
-            <v>Remis</v>
+            <v>Legia Warszawa</v>
           </cell>
         </row>
         <row r="184">
@@ -2373,7 +2373,7 @@
             <v xml:space="preserve"> Jagielonia Białystok</v>
           </cell>
           <cell r="C188" t="str">
-            <v>Remis</v>
+            <v>Jagielonia Białystok</v>
           </cell>
         </row>
         <row r="189">
@@ -2406,7 +2406,7 @@
             <v xml:space="preserve"> Cracovia</v>
           </cell>
           <cell r="C191" t="str">
-            <v>Cracovia</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="192">
@@ -2417,7 +2417,7 @@
             <v xml:space="preserve"> Raków Częstochowa</v>
           </cell>
           <cell r="C192" t="str">
-            <v>Raków Częstochowa</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="193">
@@ -2428,7 +2428,7 @@
             <v xml:space="preserve"> Miedź Legnica</v>
           </cell>
           <cell r="C193" t="str">
-            <v>Remis</v>
+            <v>Zagłębie Lubin</v>
           </cell>
         </row>
         <row r="194">
@@ -2472,7 +2472,7 @@
             <v xml:space="preserve"> Korona Kielce</v>
           </cell>
           <cell r="C197" t="str">
-            <v>Warta Poznań</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="198">
@@ -2483,7 +2483,7 @@
             <v xml:space="preserve"> Pogoń Szczecin</v>
           </cell>
           <cell r="C198" t="str">
-            <v>Wisła Płock</v>
+            <v>Pogoń Szczecin</v>
           </cell>
         </row>
         <row r="199">
@@ -2538,7 +2538,7 @@
             <v xml:space="preserve"> Jagielonia Białystok</v>
           </cell>
           <cell r="C203" t="str">
-            <v>Jagielonia Białystok</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="204">
@@ -2571,7 +2571,7 @@
             <v xml:space="preserve"> Zagłębie Lubin</v>
           </cell>
           <cell r="C206" t="str">
-            <v>Zagłębie Lubin</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="207">
@@ -2593,7 +2593,7 @@
             <v xml:space="preserve"> Warta Poznań</v>
           </cell>
           <cell r="C208" t="str">
-            <v>Widzew Łódź</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="209">
@@ -2615,7 +2615,7 @@
             <v xml:space="preserve"> Górnik Zabrze</v>
           </cell>
           <cell r="C210" t="str">
-            <v>Remis</v>
+            <v>Jagielonia Białystok</v>
           </cell>
         </row>
         <row r="211">
@@ -2626,7 +2626,7 @@
             <v xml:space="preserve"> Pogoń Szczecin</v>
           </cell>
           <cell r="C211" t="str">
-            <v>Pogoń Szczecin</v>
+            <v>Zagłębie Lubin</v>
           </cell>
         </row>
         <row r="212">
@@ -2637,7 +2637,7 @@
             <v xml:space="preserve"> Radomiak Radom</v>
           </cell>
           <cell r="C212" t="str">
-            <v>Radomiak Radom</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="213">
@@ -2648,7 +2648,7 @@
             <v xml:space="preserve"> Miedź Legnica</v>
           </cell>
           <cell r="C213" t="str">
-            <v>Lechia Gdańsk</v>
+            <v>Miedź Legnica</v>
           </cell>
         </row>
         <row r="214">
@@ -2659,7 +2659,7 @@
             <v xml:space="preserve"> Stal Mielec</v>
           </cell>
           <cell r="C214" t="str">
-            <v>Remis</v>
+            <v>Legia Warszawa</v>
           </cell>
         </row>
         <row r="215">
@@ -2681,7 +2681,7 @@
             <v xml:space="preserve"> Cracovia</v>
           </cell>
           <cell r="C216" t="str">
-            <v>Warta Poznań</v>
+            <v>Cracovia</v>
           </cell>
         </row>
         <row r="217">
@@ -2725,7 +2725,7 @@
             <v xml:space="preserve"> Wisła Płock</v>
           </cell>
           <cell r="C220" t="str">
-            <v>Górnik Zabrze</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="221">
@@ -2747,7 +2747,7 @@
             <v xml:space="preserve"> Legia Warszawa</v>
           </cell>
           <cell r="C222" t="str">
-            <v>Legia Warszawa</v>
+            <v>Radomiak Radom</v>
           </cell>
         </row>
         <row r="223">
@@ -2769,7 +2769,7 @@
             <v xml:space="preserve"> Lechia Gdańsk</v>
           </cell>
           <cell r="C224" t="str">
-            <v>Warta Poznań</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="225">
@@ -2802,7 +2802,7 @@
             <v xml:space="preserve"> Widzew Łódź</v>
           </cell>
           <cell r="C227" t="str">
-            <v>Remis</v>
+            <v>Cracovia</v>
           </cell>
         </row>
         <row r="228">
@@ -2813,7 +2813,7 @@
             <v xml:space="preserve"> Górnik Zabrze</v>
           </cell>
           <cell r="C228" t="str">
-            <v>Piast Gliwice</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="229">
@@ -2824,7 +2824,7 @@
             <v xml:space="preserve"> Warta Poznań</v>
           </cell>
           <cell r="C229" t="str">
-            <v>Warta Poznań</v>
+            <v>Zagłębie Lubin</v>
           </cell>
         </row>
         <row r="230">
@@ -2835,7 +2835,7 @@
             <v xml:space="preserve"> Miedź Legnica</v>
           </cell>
           <cell r="C230" t="str">
-            <v>Korona Kielce</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="231">
@@ -2868,7 +2868,7 @@
             <v xml:space="preserve"> Raków Częstochowa</v>
           </cell>
           <cell r="C233" t="str">
-            <v>Legia Warszawa</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="234">
@@ -2890,7 +2890,7 @@
             <v xml:space="preserve"> Radomiak Radom</v>
           </cell>
           <cell r="C235" t="str">
-            <v>Remis</v>
+            <v>Wisła Płock</v>
           </cell>
         </row>
         <row r="236">
@@ -2901,7 +2901,7 @@
             <v xml:space="preserve"> Lechia Gdańsk</v>
           </cell>
           <cell r="C236" t="str">
-            <v>Lechia Gdańsk</v>
+            <v>Jagielonia Białystok</v>
           </cell>
         </row>
         <row r="237">
@@ -2923,7 +2923,7 @@
             <v xml:space="preserve"> Legia Warszawa</v>
           </cell>
           <cell r="C238" t="str">
-            <v>Remis</v>
+            <v>Legia Warszawa</v>
           </cell>
         </row>
         <row r="239">
@@ -2934,7 +2934,7 @@
             <v xml:space="preserve"> Korona Kielce</v>
           </cell>
           <cell r="C239" t="str">
-            <v>Korona Kielce</v>
+            <v>Górnik Zabrze</v>
           </cell>
         </row>
         <row r="240">
@@ -2989,7 +2989,7 @@
             <v xml:space="preserve"> Piast Gliwice</v>
           </cell>
           <cell r="C244" t="str">
-            <v>Śląsk Wrocław</v>
+            <v>Piast Gliwice</v>
           </cell>
         </row>
         <row r="245">
@@ -3022,7 +3022,7 @@
             <v xml:space="preserve"> Górnik Zabrze</v>
           </cell>
           <cell r="C247" t="str">
-            <v>Remis</v>
+            <v>Zagłębie Lubin</v>
           </cell>
         </row>
         <row r="248">
@@ -3033,7 +3033,7 @@
             <v xml:space="preserve"> Jagielonia Białystok</v>
           </cell>
           <cell r="C248" t="str">
-            <v>Korona Kielce</v>
+            <v>Jagielonia Białystok</v>
           </cell>
         </row>
         <row r="249">
@@ -3044,7 +3044,7 @@
             <v xml:space="preserve"> Pogoń Szczecin</v>
           </cell>
           <cell r="C249" t="str">
-            <v>Pogoń Szczecin</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="250">
@@ -3099,7 +3099,7 @@
             <v xml:space="preserve"> Zagłębie Lubin</v>
           </cell>
           <cell r="C254" t="str">
-            <v>Zagłębie Lubin</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="255">
@@ -3121,7 +3121,7 @@
             <v xml:space="preserve"> Raków Częstochowa</v>
           </cell>
           <cell r="C256" t="str">
-            <v>Raków Częstochowa</v>
+            <v>Miedź Legnica</v>
           </cell>
         </row>
         <row r="257">
@@ -3165,7 +3165,7 @@
             <v xml:space="preserve"> Legia Warszawa</v>
           </cell>
           <cell r="C260" t="str">
-            <v>Legia Warszawa</v>
+            <v>Warta Poznań</v>
           </cell>
         </row>
         <row r="261">
@@ -3176,7 +3176,7 @@
             <v xml:space="preserve"> Piast Gliwice</v>
           </cell>
           <cell r="C261" t="str">
-            <v>Widzew Łódź</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="262">
@@ -3198,7 +3198,7 @@
             <v xml:space="preserve"> Miedź Legnica</v>
           </cell>
           <cell r="C263" t="str">
-            <v>Remis</v>
+            <v>Cracovia</v>
           </cell>
         </row>
         <row r="264">
@@ -3209,7 +3209,7 @@
             <v xml:space="preserve"> Pogoń Szczecin</v>
           </cell>
           <cell r="C264" t="str">
-            <v>Piast Gliwice</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="265">
@@ -3220,7 +3220,7 @@
             <v xml:space="preserve"> Warta Poznań</v>
           </cell>
           <cell r="C265" t="str">
-            <v>Remis</v>
+            <v>Jagielonia Białystok</v>
           </cell>
         </row>
         <row r="266">
@@ -3264,7 +3264,7 @@
             <v xml:space="preserve"> Lechia Gdańsk</v>
           </cell>
           <cell r="C269" t="str">
-            <v>Raków Częstochowa</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="270">
@@ -3275,7 +3275,7 @@
             <v xml:space="preserve"> Korona Kielce</v>
           </cell>
           <cell r="C270" t="str">
-            <v>Stal Mielec</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="271">
@@ -3297,7 +3297,7 @@
             <v xml:space="preserve"> Śląsk Wrocław</v>
           </cell>
           <cell r="C272" t="str">
-            <v>Remis</v>
+            <v>Jagielonia Białystok</v>
           </cell>
         </row>
         <row r="273">
@@ -3319,7 +3319,7 @@
             <v xml:space="preserve"> Cracovia</v>
           </cell>
           <cell r="C274" t="str">
-            <v>Cracovia</v>
+            <v>Lech Poznań</v>
           </cell>
         </row>
         <row r="275">
@@ -3341,7 +3341,7 @@
             <v xml:space="preserve"> Widzew Łódź</v>
           </cell>
           <cell r="C276" t="str">
-            <v>Miedź Legnica</v>
+            <v>Widzew Łódź</v>
           </cell>
         </row>
         <row r="277">
@@ -3352,7 +3352,7 @@
             <v xml:space="preserve"> Warta Poznań</v>
           </cell>
           <cell r="C277" t="str">
-            <v>Remis</v>
+            <v>Górnik Zabrze</v>
           </cell>
         </row>
         <row r="278">
@@ -3363,7 +3363,7 @@
             <v xml:space="preserve"> Legia Warszawa</v>
           </cell>
           <cell r="C278" t="str">
-            <v>Pogoń Szczecin</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="279">
@@ -3374,7 +3374,7 @@
             <v xml:space="preserve"> Piast Gliwice</v>
           </cell>
           <cell r="C279" t="str">
-            <v>Remis</v>
+            <v>Piast Gliwice</v>
           </cell>
         </row>
         <row r="280">
@@ -3385,7 +3385,7 @@
             <v xml:space="preserve"> Stal Mielec</v>
           </cell>
           <cell r="C280" t="str">
-            <v>Wisła Płock</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="281">
@@ -3396,7 +3396,7 @@
             <v xml:space="preserve"> Zagłębie Lubin</v>
           </cell>
           <cell r="C281" t="str">
-            <v>Remis</v>
+            <v>Zagłębie Lubin</v>
           </cell>
         </row>
         <row r="282">
@@ -3407,7 +3407,7 @@
             <v xml:space="preserve"> Korona Kielce</v>
           </cell>
           <cell r="C282" t="str">
-            <v>Piast Gliwice</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="283">
@@ -3418,7 +3418,7 @@
             <v xml:space="preserve"> Jagielonia Białystok</v>
           </cell>
           <cell r="C283" t="str">
-            <v>Jagielonia Białystok</v>
+            <v>Legia Warszawa</v>
           </cell>
         </row>
         <row r="284">
@@ -3440,7 +3440,7 @@
             <v xml:space="preserve"> Lech Poznań</v>
           </cell>
           <cell r="C285" t="str">
-            <v>Remis</v>
+            <v>Lech Poznań</v>
           </cell>
         </row>
         <row r="286">
@@ -3462,7 +3462,7 @@
             <v xml:space="preserve"> Radomiak Radom</v>
           </cell>
           <cell r="C287" t="str">
-            <v>Warta Poznań</v>
+            <v>Radomiak Radom</v>
           </cell>
         </row>
         <row r="288">
@@ -3484,7 +3484,7 @@
             <v xml:space="preserve"> Wisła Płock</v>
           </cell>
           <cell r="C289" t="str">
-            <v>Wisła Płock</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="290">
@@ -3506,7 +3506,7 @@
             <v xml:space="preserve"> Stal Mielec</v>
           </cell>
           <cell r="C291" t="str">
-            <v>Zagłębie Lubin</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="292">
@@ -3528,7 +3528,7 @@
             <v xml:space="preserve"> Legia Warszawa</v>
           </cell>
           <cell r="C293" t="str">
-            <v>Lechia Gdańsk</v>
+            <v>Legia Warszawa</v>
           </cell>
         </row>
         <row r="294">
@@ -3550,7 +3550,7 @@
             <v xml:space="preserve"> Widzew Łódź</v>
           </cell>
           <cell r="C295" t="str">
-            <v>Remis</v>
+            <v>Radomiak Radom</v>
           </cell>
         </row>
         <row r="296">
@@ -3583,7 +3583,7 @@
             <v xml:space="preserve"> Miedź Legnica</v>
           </cell>
           <cell r="C298" t="str">
-            <v>Śląsk Wrocław</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="299">
@@ -3594,7 +3594,7 @@
             <v xml:space="preserve"> Wisła Płock</v>
           </cell>
           <cell r="C299" t="str">
-            <v>Cracovia</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="300">
@@ -3605,7 +3605,7 @@
             <v xml:space="preserve"> Lechia Gdańsk</v>
           </cell>
           <cell r="C300" t="str">
-            <v>Piast Gliwice</v>
+            <v>Lechia Gdańsk</v>
           </cell>
         </row>
         <row r="301">
@@ -3638,7 +3638,7 @@
             <v xml:space="preserve"> Górnik Zabrze</v>
           </cell>
           <cell r="C303" t="str">
-            <v>Remis</v>
+            <v>Górnik Zabrze</v>
           </cell>
         </row>
         <row r="304">
@@ -3649,7 +3649,7 @@
             <v xml:space="preserve"> Radomiak Radom</v>
           </cell>
           <cell r="C304" t="str">
-            <v>Remis</v>
+            <v>Pogoń Szczecin</v>
           </cell>
         </row>
         <row r="305">
@@ -3660,7 +3660,7 @@
             <v xml:space="preserve"> Zagłębie Lubin</v>
           </cell>
           <cell r="C305" t="str">
-            <v>Raków Częstochowa</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="306">
@@ -3682,7 +3682,7 @@
             <v xml:space="preserve"> Korona Kielce</v>
           </cell>
           <cell r="C307" t="str">
-            <v>Korona Kielce</v>
+            <v>Remis</v>
           </cell>
         </row>
       </sheetData>
@@ -3991,7 +3991,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4028,15 +4028,15 @@
       </c>
       <c r="B2" s="9">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A2)</f>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A2 &amp; "*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A2 &amp; "*")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" s="9">
         <f t="shared" ref="E2:E19" si="0">34-SUM(B2:D2)</f>
@@ -4044,7 +4044,7 @@
       </c>
       <c r="F2" s="10">
         <f t="shared" ref="F2:F19" si="1">(B2*3)+((C2+D2)*1)</f>
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4053,23 +4053,23 @@
       </c>
       <c r="B3" s="9">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A3)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A3 &amp; "*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A3 &amp; "*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" s="10">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4078,7 +4078,7 @@
       </c>
       <c r="B4" s="9">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A4)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A4 &amp; "*")</f>
@@ -4086,11 +4086,11 @@
       </c>
       <c r="D4" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A4 &amp; "*")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4" s="10">
         <f t="shared" si="1"/>
@@ -4103,15 +4103,15 @@
       </c>
       <c r="B5" s="9">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A5)</f>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C5" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A5 &amp; "*")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A5 &amp; "*")</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="0"/>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="F5" s="10">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4128,11 +4128,11 @@
       </c>
       <c r="B6" s="9">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A6)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A6 &amp; "*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A6 &amp; "*")</f>
@@ -4140,11 +4140,11 @@
       </c>
       <c r="E6" s="9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F6" s="10">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4153,23 +4153,23 @@
       </c>
       <c r="B7" s="9">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A7)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A7 &amp; "*")</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A7 &amp; "*")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" s="10">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="B8" s="9">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A8)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A8 &amp; "*")</f>
@@ -4186,15 +4186,15 @@
       </c>
       <c r="D8" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A8 &amp; "*")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F8" s="10">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4203,11 +4203,11 @@
       </c>
       <c r="B9" s="9">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A9)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A9 &amp; "*")</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D9" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A9 &amp; "*")</f>
@@ -4215,11 +4215,11 @@
       </c>
       <c r="E9" s="9">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="10">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4228,23 +4228,23 @@
       </c>
       <c r="B10" s="9">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A10)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A10 &amp; "*")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A10 &amp; "*")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="10">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4253,11 +4253,11 @@
       </c>
       <c r="B11" s="5">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A11)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" s="5">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A11 &amp; "*")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="5">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A11 &amp; "*")</f>
@@ -4265,11 +4265,11 @@
       </c>
       <c r="E11" s="5">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4278,23 +4278,23 @@
       </c>
       <c r="B12" s="7">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A12)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C12" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A12 &amp; "*")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A12 &amp; "*")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4303,15 +4303,15 @@
       </c>
       <c r="B13" s="7">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A13)</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C13" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A13 &amp; "*")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A13 &amp; "*")</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="0"/>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="F13" s="7">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4332,19 +4332,19 @@
       </c>
       <c r="C14" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A14 &amp; "*")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A14 &amp; "*")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4353,15 +4353,15 @@
       </c>
       <c r="B15" s="7">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A15)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C15" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A15 &amp; "*")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D15" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A15 &amp; "*")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="0"/>
@@ -4369,7 +4369,7 @@
       </c>
       <c r="F15" s="7">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4378,23 +4378,23 @@
       </c>
       <c r="B16" s="7">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A16)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A16 &amp; "*")</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A16 &amp; "*")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F16" s="7">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4403,11 +4403,11 @@
       </c>
       <c r="B17" s="7">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A17)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A17 &amp; "*")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A17 &amp; "*")</f>
@@ -4415,11 +4415,11 @@
       </c>
       <c r="E17" s="7">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" s="7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4428,23 +4428,23 @@
       </c>
       <c r="B18" s="7">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A18)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C18" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A18 &amp; "*")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D18" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A18 &amp; "*")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18" s="7">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F18" s="7">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4453,19 +4453,19 @@
       </c>
       <c r="B19" s="7">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A19)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A19 &amp; "*")</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A19 &amp; "*")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F19" s="7">
         <f t="shared" si="1"/>

--- a/Wynik końcowy na koniec sezonu.xlsx
+++ b/Wynik końcowy na koniec sezonu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projekt_na_studia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06C4376-CD83-4A46-AE25-BD723419507D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0271928-DBCE-4F00-8D63-945253600F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="3870" windowWidth="28680" windowHeight="15420" xr2:uid="{ECB29434-B3BC-4FD8-9A04-DB96BF556489}"/>
+    <workbookView xWindow="4110" yWindow="4110" windowWidth="28680" windowHeight="15420" xr2:uid="{ECB29434-B3BC-4FD8-9A04-DB96BF556489}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -327,7 +327,7 @@
             <v>Piast Gliwice</v>
           </cell>
           <cell r="C2" t="str">
-            <v>Jagielonia Białystok</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="3">
@@ -338,7 +338,7 @@
             <v xml:space="preserve"> Śląsk Wrocław</v>
           </cell>
           <cell r="C3" t="str">
-            <v>Śląsk Wrocław</v>
+            <v>Zagłębie Lubin</v>
           </cell>
         </row>
         <row r="4">
@@ -371,7 +371,7 @@
             <v xml:space="preserve"> Cracovia</v>
           </cell>
           <cell r="C6" t="str">
-            <v>Cracovia</v>
+            <v>Górnik Zabrze</v>
           </cell>
         </row>
         <row r="7">
@@ -415,7 +415,7 @@
             <v>Lechia Gdańsk</v>
           </cell>
           <cell r="C10" t="str">
-            <v>Remis</v>
+            <v>Lechia Gdańsk</v>
           </cell>
         </row>
         <row r="11">
@@ -426,7 +426,7 @@
             <v xml:space="preserve"> Korona Kielce</v>
           </cell>
           <cell r="C11" t="str">
-            <v>Cracovia</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="12">
@@ -437,7 +437,7 @@
             <v xml:space="preserve"> Raków Częstochowa</v>
           </cell>
           <cell r="C12" t="str">
-            <v>Remis</v>
+            <v>Raków Częstochowa</v>
           </cell>
         </row>
         <row r="13">
@@ -448,7 +448,7 @@
             <v xml:space="preserve"> Widzew Łódź</v>
           </cell>
           <cell r="C13" t="str">
-            <v>Remis</v>
+            <v>Jagielonia Białystok</v>
           </cell>
         </row>
         <row r="14">
@@ -459,7 +459,7 @@
             <v xml:space="preserve"> Górnik Zabrze</v>
           </cell>
           <cell r="C14" t="str">
-            <v>Lechia Gdańsk</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="15">
@@ -470,7 +470,7 @@
             <v>Zagłębie Lubin</v>
           </cell>
           <cell r="C15" t="str">
-            <v>Legia Warszawa</v>
+            <v>Zagłębie Lubin</v>
           </cell>
         </row>
         <row r="16">
@@ -492,7 +492,7 @@
             <v>Radomiak Radom</v>
           </cell>
           <cell r="C17" t="str">
-            <v>Remis</v>
+            <v>Radomiak Radom</v>
           </cell>
         </row>
         <row r="18">
@@ -591,7 +591,7 @@
             <v>Górnik Zabrze</v>
           </cell>
           <cell r="C26" t="str">
-            <v>Remis</v>
+            <v>Górnik Zabrze</v>
           </cell>
         </row>
         <row r="27">
@@ -602,7 +602,7 @@
             <v>Stal Mielec</v>
           </cell>
           <cell r="C27" t="str">
-            <v>Raków Częstochowa</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="28">
@@ -624,7 +624,7 @@
             <v>Radomiak Radom</v>
           </cell>
           <cell r="C29" t="str">
-            <v>Remis</v>
+            <v>Jagielonia Białystok</v>
           </cell>
         </row>
         <row r="30">
@@ -657,7 +657,7 @@
             <v>Piast Gliwice</v>
           </cell>
           <cell r="C32" t="str">
-            <v>Piast Gliwice</v>
+            <v>Legia Warszawa</v>
           </cell>
         </row>
         <row r="33">
@@ -679,7 +679,7 @@
             <v>Cracovia</v>
           </cell>
           <cell r="C34" t="str">
-            <v>Stal Mielec</v>
+            <v>Cracovia</v>
           </cell>
         </row>
         <row r="35">
@@ -690,7 +690,7 @@
             <v>Pogoń Szczecin</v>
           </cell>
           <cell r="C35" t="str">
-            <v>Pogoń Szczecin</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="36">
@@ -712,7 +712,7 @@
             <v>Widzew Łódź</v>
           </cell>
           <cell r="C37" t="str">
-            <v>Remis</v>
+            <v>Śląsk Wrocław</v>
           </cell>
         </row>
         <row r="38">
@@ -734,7 +734,7 @@
             <v>Warta Poznań</v>
           </cell>
           <cell r="C39" t="str">
-            <v>Korona Kielce</v>
+            <v>Warta Poznań</v>
           </cell>
         </row>
         <row r="40">
@@ -745,7 +745,7 @@
             <v>Śląsk Wrocław</v>
           </cell>
           <cell r="C40" t="str">
-            <v>Lech Poznań</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="41">
@@ -756,7 +756,7 @@
             <v>Zagłębie Lubin</v>
           </cell>
           <cell r="C41" t="str">
-            <v>Remis</v>
+            <v>Miedź Legnica</v>
           </cell>
         </row>
         <row r="42">
@@ -822,7 +822,7 @@
             <v xml:space="preserve"> Stal Mielec</v>
           </cell>
           <cell r="C47" t="str">
-            <v>Piast Gliwice</v>
+            <v>Stal Mielec</v>
           </cell>
         </row>
         <row r="48">
@@ -844,7 +844,7 @@
             <v xml:space="preserve"> Radomiak Radom</v>
           </cell>
           <cell r="C49" t="str">
-            <v>Zagłębie Lubin</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="50">
@@ -855,7 +855,7 @@
             <v xml:space="preserve"> Lech Poznań</v>
           </cell>
           <cell r="C50" t="str">
-            <v>Remis</v>
+            <v>Lech Poznań</v>
           </cell>
         </row>
         <row r="51">
@@ -877,7 +877,7 @@
             <v xml:space="preserve"> Pogoń Szczecin</v>
           </cell>
           <cell r="C52" t="str">
-            <v>Remis</v>
+            <v>Pogoń Szczecin</v>
           </cell>
         </row>
         <row r="53">
@@ -899,7 +899,7 @@
             <v xml:space="preserve"> Korona Kielce</v>
           </cell>
           <cell r="C54" t="str">
-            <v>Korona Kielce</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="55">
@@ -910,7 +910,7 @@
             <v xml:space="preserve"> Cracovia</v>
           </cell>
           <cell r="C55" t="str">
-            <v>Śląsk Wrocław</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="56">
@@ -921,7 +921,7 @@
             <v xml:space="preserve"> Warta Poznań</v>
           </cell>
           <cell r="C56" t="str">
-            <v>Warta Poznań</v>
+            <v>Cracovia</v>
           </cell>
         </row>
         <row r="57">
@@ -954,7 +954,7 @@
             <v xml:space="preserve"> Jagielonia Białystok</v>
           </cell>
           <cell r="C59" t="str">
-            <v>Górnik Zabrze</v>
+            <v>Jagielonia Białystok</v>
           </cell>
         </row>
         <row r="60">
@@ -998,7 +998,7 @@
             <v xml:space="preserve"> Wisła Płock</v>
           </cell>
           <cell r="C63" t="str">
-            <v>Wisła Płock</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="64">
@@ -1020,7 +1020,7 @@
             <v xml:space="preserve"> Raków Częstochowa</v>
           </cell>
           <cell r="C65" t="str">
-            <v>Raków Częstochowa</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="66">
@@ -1031,7 +1031,7 @@
             <v xml:space="preserve"> Miedź Legnica</v>
           </cell>
           <cell r="C66" t="str">
-            <v>Piast Gliwice</v>
+            <v>Miedź Legnica</v>
           </cell>
         </row>
         <row r="67">
@@ -1053,7 +1053,7 @@
             <v xml:space="preserve"> Pogoń Szczecin</v>
           </cell>
           <cell r="C68" t="str">
-            <v>Pogoń Szczecin</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="69">
@@ -1097,7 +1097,7 @@
             <v xml:space="preserve"> Śląsk Wrocław</v>
           </cell>
           <cell r="C72" t="str">
-            <v>Śląsk Wrocław</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="73">
@@ -1119,7 +1119,7 @@
             <v xml:space="preserve"> Stal Mielec</v>
           </cell>
           <cell r="C74" t="str">
-            <v>Remis</v>
+            <v>Jagielonia Białystok</v>
           </cell>
         </row>
         <row r="75">
@@ -1130,7 +1130,7 @@
             <v xml:space="preserve"> Korona Kielce</v>
           </cell>
           <cell r="C75" t="str">
-            <v>Korona Kielce</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="76">
@@ -1174,7 +1174,7 @@
             <v xml:space="preserve"> Legia Warszawa</v>
           </cell>
           <cell r="C79" t="str">
-            <v>Raków Częstochowa</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="80">
@@ -1207,7 +1207,7 @@
             <v xml:space="preserve"> Lechia Gdańsk</v>
           </cell>
           <cell r="C82" t="str">
-            <v>Remis</v>
+            <v>Śląsk Wrocław</v>
           </cell>
         </row>
         <row r="83">
@@ -1240,7 +1240,7 @@
             <v xml:space="preserve"> Wisła Płock</v>
           </cell>
           <cell r="C85" t="str">
-            <v>Remis</v>
+            <v>Zagłębie Lubin</v>
           </cell>
         </row>
         <row r="86">
@@ -1251,7 +1251,7 @@
             <v xml:space="preserve"> Górnik Zabrze</v>
           </cell>
           <cell r="C86" t="str">
-            <v>Remis</v>
+            <v>Górnik Zabrze</v>
           </cell>
         </row>
         <row r="87">
@@ -1273,7 +1273,7 @@
             <v xml:space="preserve"> Miedź Legnica</v>
           </cell>
           <cell r="C88" t="str">
-            <v>Legia Warszawa</v>
+            <v>Miedź Legnica</v>
           </cell>
         </row>
         <row r="89">
@@ -1295,7 +1295,7 @@
             <v xml:space="preserve"> Widzew Łódź</v>
           </cell>
           <cell r="C90" t="str">
-            <v>Stal Mielec</v>
+            <v>Widzew Łódź</v>
           </cell>
         </row>
         <row r="91">
@@ -1317,7 +1317,7 @@
             <v xml:space="preserve"> Korona Kielce</v>
           </cell>
           <cell r="C92" t="str">
-            <v>Jagielonia Białystok</v>
+            <v>Korona Kielce</v>
           </cell>
         </row>
         <row r="93">
@@ -1328,7 +1328,7 @@
             <v xml:space="preserve"> Legia Warszawa</v>
           </cell>
           <cell r="C93" t="str">
-            <v>Lech Poznań</v>
+            <v>Legia Warszawa</v>
           </cell>
         </row>
         <row r="94">
@@ -1339,7 +1339,7 @@
             <v xml:space="preserve"> Stal Mielec</v>
           </cell>
           <cell r="C94" t="str">
-            <v>Remis</v>
+            <v>Miedź Legnica</v>
           </cell>
         </row>
         <row r="95">
@@ -1350,7 +1350,7 @@
             <v xml:space="preserve"> Zagłębie Lubin</v>
           </cell>
           <cell r="C95" t="str">
-            <v>Górnik Zabrze</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="96">
@@ -1361,7 +1361,7 @@
             <v xml:space="preserve"> Lechia Gdańsk</v>
           </cell>
           <cell r="C96" t="str">
-            <v>Lechia Gdańsk</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="97">
@@ -1372,7 +1372,7 @@
             <v xml:space="preserve"> Cracovia</v>
           </cell>
           <cell r="C97" t="str">
-            <v>Cracovia</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="98">
@@ -1394,7 +1394,7 @@
             <v xml:space="preserve"> Piast Gliwice</v>
           </cell>
           <cell r="C99" t="str">
-            <v>Remis</v>
+            <v>Wisła Płock</v>
           </cell>
         </row>
         <row r="100">
@@ -1405,7 +1405,7 @@
             <v xml:space="preserve"> Warta Poznań</v>
           </cell>
           <cell r="C100" t="str">
-            <v>Śląsk Wrocław</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="101">
@@ -1438,7 +1438,7 @@
             <v xml:space="preserve"> Wisła Płock</v>
           </cell>
           <cell r="C103" t="str">
-            <v>Wisła Płock</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="104">
@@ -1471,7 +1471,7 @@
             <v xml:space="preserve"> Warta Poznań</v>
           </cell>
           <cell r="C106" t="str">
-            <v>Legia Warszawa</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="107">
@@ -1504,7 +1504,7 @@
             <v xml:space="preserve"> Górnik Zabrze</v>
           </cell>
           <cell r="C109" t="str">
-            <v>Górnik Zabrze</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="110">
@@ -1515,7 +1515,7 @@
             <v xml:space="preserve"> Stal Mielec</v>
           </cell>
           <cell r="C110" t="str">
-            <v>Remis</v>
+            <v>Korona Kielce</v>
           </cell>
         </row>
         <row r="111">
@@ -1526,7 +1526,7 @@
             <v xml:space="preserve"> Raków Częstochowa</v>
           </cell>
           <cell r="C111" t="str">
-            <v>Raków Częstochowa</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="112">
@@ -1537,7 +1537,7 @@
             <v xml:space="preserve"> Cracovia</v>
           </cell>
           <cell r="C112" t="str">
-            <v>Remis</v>
+            <v>Cracovia</v>
           </cell>
         </row>
         <row r="113">
@@ -1548,7 +1548,7 @@
             <v xml:space="preserve"> Lech Poznań</v>
           </cell>
           <cell r="C113" t="str">
-            <v>Lech Poznań</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="114">
@@ -1581,7 +1581,7 @@
             <v xml:space="preserve"> Jagielonia Białystok</v>
           </cell>
           <cell r="C116" t="str">
-            <v>Jagielonia Białystok</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="117">
@@ -1603,7 +1603,7 @@
             <v xml:space="preserve"> Legia Warszawa</v>
           </cell>
           <cell r="C118" t="str">
-            <v>Legia Warszawa</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="119">
@@ -1625,7 +1625,7 @@
             <v xml:space="preserve"> Radomiak Radom</v>
           </cell>
           <cell r="C120" t="str">
-            <v>Radomiak Radom</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="121">
@@ -1647,7 +1647,7 @@
             <v xml:space="preserve"> Pogoń Szczecin</v>
           </cell>
           <cell r="C122" t="str">
-            <v>Remis</v>
+            <v>Legia Warszawa</v>
           </cell>
         </row>
         <row r="123">
@@ -1680,7 +1680,7 @@
             <v xml:space="preserve"> Górnik Zabrze</v>
           </cell>
           <cell r="C125" t="str">
-            <v>Górnik Zabrze</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="126">
@@ -1691,7 +1691,7 @@
             <v xml:space="preserve"> Miedź Legnica</v>
           </cell>
           <cell r="C126" t="str">
-            <v>Remis</v>
+            <v>Widzew Łódź</v>
           </cell>
         </row>
         <row r="127">
@@ -1724,7 +1724,7 @@
             <v xml:space="preserve"> Cracovia</v>
           </cell>
           <cell r="C129" t="str">
-            <v>Zagłębie Lubin</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="130">
@@ -1845,7 +1845,7 @@
             <v xml:space="preserve"> Lechia Gdańsk</v>
           </cell>
           <cell r="C140" t="str">
-            <v>Lechia Gdańsk</v>
+            <v>Legia Warszawa</v>
           </cell>
         </row>
         <row r="141">
@@ -1867,7 +1867,7 @@
             <v xml:space="preserve"> Górnik Zabrze</v>
           </cell>
           <cell r="C142" t="str">
-            <v>Remis</v>
+            <v>Pogoń Szczecin</v>
           </cell>
         </row>
         <row r="143">
@@ -1889,7 +1889,7 @@
             <v xml:space="preserve"> Zagłębie Lubin</v>
           </cell>
           <cell r="C144" t="str">
-            <v>Zagłębie Lubin</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="145">
@@ -1911,7 +1911,7 @@
             <v xml:space="preserve"> Lech Poznań</v>
           </cell>
           <cell r="C146" t="str">
-            <v>Remis</v>
+            <v>Lech Poznań</v>
           </cell>
         </row>
         <row r="147">
@@ -1988,7 +1988,7 @@
             <v xml:space="preserve"> Cracovia</v>
           </cell>
           <cell r="C153" t="str">
-            <v>Cracovia</v>
+            <v>Wisła Płock</v>
           </cell>
         </row>
         <row r="154">
@@ -2032,7 +2032,7 @@
             <v xml:space="preserve"> Wisła Płock</v>
           </cell>
           <cell r="C157" t="str">
-            <v>Remis</v>
+            <v>Lechia Gdańsk</v>
           </cell>
         </row>
         <row r="158">
@@ -2054,7 +2054,7 @@
             <v xml:space="preserve"> Radomiak Radom</v>
           </cell>
           <cell r="C159" t="str">
-            <v>Remis</v>
+            <v>Radomiak Radom</v>
           </cell>
         </row>
         <row r="160">
@@ -2098,7 +2098,7 @@
             <v xml:space="preserve"> Zagłębie Lubin</v>
           </cell>
           <cell r="C163" t="str">
-            <v>Zagłębie Lubin</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="164">
@@ -2109,7 +2109,7 @@
             <v xml:space="preserve"> Legia Warszawa</v>
           </cell>
           <cell r="C164" t="str">
-            <v>Legia Warszawa</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="165">
@@ -2142,7 +2142,7 @@
             <v xml:space="preserve"> Lechia Gdańsk</v>
           </cell>
           <cell r="C167" t="str">
-            <v>Lechia Gdańsk</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="168">
@@ -2164,7 +2164,7 @@
             <v xml:space="preserve"> Stal Mielec</v>
           </cell>
           <cell r="C169" t="str">
-            <v>Stal Mielec</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="170">
@@ -2186,7 +2186,7 @@
             <v xml:space="preserve"> Jagielonia Białystok</v>
           </cell>
           <cell r="C171" t="str">
-            <v>Remis</v>
+            <v>Widzew Łódź</v>
           </cell>
         </row>
         <row r="172">
@@ -2197,7 +2197,7 @@
             <v xml:space="preserve"> Warta Poznań</v>
           </cell>
           <cell r="C172" t="str">
-            <v>Warta Poznań</v>
+            <v>Wisła Płock</v>
           </cell>
         </row>
         <row r="173">
@@ -2219,7 +2219,7 @@
             <v xml:space="preserve"> Piast Gliwice</v>
           </cell>
           <cell r="C174" t="str">
-            <v>Zagłębie Lubin</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="175">
@@ -2252,7 +2252,7 @@
             <v xml:space="preserve"> Radomiak Radom</v>
           </cell>
           <cell r="C177" t="str">
-            <v>Remis</v>
+            <v>Radomiak Radom</v>
           </cell>
         </row>
         <row r="178">
@@ -2318,7 +2318,7 @@
             <v xml:space="preserve"> Legia Warszawa</v>
           </cell>
           <cell r="C183" t="str">
-            <v>Legia Warszawa</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="184">
@@ -2351,7 +2351,7 @@
             <v xml:space="preserve"> Wisła Płock</v>
           </cell>
           <cell r="C186" t="str">
-            <v>Wisła Płock</v>
+            <v>Miedź Legnica</v>
           </cell>
         </row>
         <row r="187">
@@ -2384,7 +2384,7 @@
             <v xml:space="preserve"> Górnik Zabrze</v>
           </cell>
           <cell r="C189" t="str">
-            <v>Raków Częstochowa</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="190">
@@ -2406,7 +2406,7 @@
             <v xml:space="preserve"> Cracovia</v>
           </cell>
           <cell r="C191" t="str">
-            <v>Remis</v>
+            <v>Piast Gliwice</v>
           </cell>
         </row>
         <row r="192">
@@ -2417,7 +2417,7 @@
             <v xml:space="preserve"> Raków Częstochowa</v>
           </cell>
           <cell r="C192" t="str">
-            <v>Remis</v>
+            <v>Raków Częstochowa</v>
           </cell>
         </row>
         <row r="193">
@@ -2461,7 +2461,7 @@
             <v xml:space="preserve"> Górnik Zabrze</v>
           </cell>
           <cell r="C196" t="str">
-            <v>Górnik Zabrze</v>
+            <v>Stal Mielec</v>
           </cell>
         </row>
         <row r="197">
@@ -2505,7 +2505,7 @@
             <v xml:space="preserve"> Śląsk Wrocław</v>
           </cell>
           <cell r="C200" t="str">
-            <v>Cracovia</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="201">
@@ -2516,7 +2516,7 @@
             <v xml:space="preserve"> Wisła Płock</v>
           </cell>
           <cell r="C201" t="str">
-            <v>Wisła Płock</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="202">
@@ -2538,7 +2538,7 @@
             <v xml:space="preserve"> Jagielonia Białystok</v>
           </cell>
           <cell r="C203" t="str">
-            <v>Remis</v>
+            <v>Miedź Legnica</v>
           </cell>
         </row>
         <row r="204">
@@ -2593,7 +2593,7 @@
             <v xml:space="preserve"> Warta Poznań</v>
           </cell>
           <cell r="C208" t="str">
-            <v>Remis</v>
+            <v>Warta Poznań</v>
           </cell>
         </row>
         <row r="209">
@@ -2604,7 +2604,7 @@
             <v xml:space="preserve"> Lech Poznań</v>
           </cell>
           <cell r="C209" t="str">
-            <v>Lech Poznań</v>
+            <v>Piast Gliwice</v>
           </cell>
         </row>
         <row r="210">
@@ -2615,7 +2615,7 @@
             <v xml:space="preserve"> Górnik Zabrze</v>
           </cell>
           <cell r="C210" t="str">
-            <v>Jagielonia Białystok</v>
+            <v>Górnik Zabrze</v>
           </cell>
         </row>
         <row r="211">
@@ -2626,7 +2626,7 @@
             <v xml:space="preserve"> Pogoń Szczecin</v>
           </cell>
           <cell r="C211" t="str">
-            <v>Zagłębie Lubin</v>
+            <v>Pogoń Szczecin</v>
           </cell>
         </row>
         <row r="212">
@@ -2637,7 +2637,7 @@
             <v xml:space="preserve"> Radomiak Radom</v>
           </cell>
           <cell r="C212" t="str">
-            <v>Remis</v>
+            <v>Korona Kielce</v>
           </cell>
         </row>
         <row r="213">
@@ -2648,7 +2648,7 @@
             <v xml:space="preserve"> Miedź Legnica</v>
           </cell>
           <cell r="C213" t="str">
-            <v>Miedź Legnica</v>
+            <v>Lechia Gdańsk</v>
           </cell>
         </row>
         <row r="214">
@@ -2703,7 +2703,7 @@
             <v xml:space="preserve"> Zagłębie Lubin</v>
           </cell>
           <cell r="C218" t="str">
-            <v>Remis</v>
+            <v>Jagielonia Białystok</v>
           </cell>
         </row>
         <row r="219">
@@ -2714,7 +2714,7 @@
             <v xml:space="preserve"> Piast Gliwice</v>
           </cell>
           <cell r="C219" t="str">
-            <v>Piast Gliwice</v>
+            <v>Miedź Legnica</v>
           </cell>
         </row>
         <row r="220">
@@ -2725,7 +2725,7 @@
             <v xml:space="preserve"> Wisła Płock</v>
           </cell>
           <cell r="C220" t="str">
-            <v>Remis</v>
+            <v>Górnik Zabrze</v>
           </cell>
         </row>
         <row r="221">
@@ -2747,7 +2747,7 @@
             <v xml:space="preserve"> Legia Warszawa</v>
           </cell>
           <cell r="C222" t="str">
-            <v>Radomiak Radom</v>
+            <v>Legia Warszawa</v>
           </cell>
         </row>
         <row r="223">
@@ -2769,7 +2769,7 @@
             <v xml:space="preserve"> Lechia Gdańsk</v>
           </cell>
           <cell r="C224" t="str">
-            <v>Remis</v>
+            <v>Lechia Gdańsk</v>
           </cell>
         </row>
         <row r="225">
@@ -2802,7 +2802,7 @@
             <v xml:space="preserve"> Widzew Łódź</v>
           </cell>
           <cell r="C227" t="str">
-            <v>Cracovia</v>
+            <v>Widzew Łódź</v>
           </cell>
         </row>
         <row r="228">
@@ -2813,7 +2813,7 @@
             <v xml:space="preserve"> Górnik Zabrze</v>
           </cell>
           <cell r="C228" t="str">
-            <v>Remis</v>
+            <v>Górnik Zabrze</v>
           </cell>
         </row>
         <row r="229">
@@ -2824,7 +2824,7 @@
             <v xml:space="preserve"> Warta Poznań</v>
           </cell>
           <cell r="C229" t="str">
-            <v>Zagłębie Lubin</v>
+            <v>Warta Poznań</v>
           </cell>
         </row>
         <row r="230">
@@ -2835,7 +2835,7 @@
             <v xml:space="preserve"> Miedź Legnica</v>
           </cell>
           <cell r="C230" t="str">
-            <v>Remis</v>
+            <v>Korona Kielce</v>
           </cell>
         </row>
         <row r="231">
@@ -2846,7 +2846,7 @@
             <v xml:space="preserve"> Pogoń Szczecin</v>
           </cell>
           <cell r="C231" t="str">
-            <v>Lech Poznań</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="232">
@@ -2868,7 +2868,7 @@
             <v xml:space="preserve"> Raków Częstochowa</v>
           </cell>
           <cell r="C233" t="str">
-            <v>Remis</v>
+            <v>Raków Częstochowa</v>
           </cell>
         </row>
         <row r="234">
@@ -2890,7 +2890,7 @@
             <v xml:space="preserve"> Radomiak Radom</v>
           </cell>
           <cell r="C235" t="str">
-            <v>Wisła Płock</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="236">
@@ -2901,7 +2901,7 @@
             <v xml:space="preserve"> Lechia Gdańsk</v>
           </cell>
           <cell r="C236" t="str">
-            <v>Jagielonia Białystok</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="237">
@@ -2912,7 +2912,7 @@
             <v xml:space="preserve"> Warta Poznań</v>
           </cell>
           <cell r="C237" t="str">
-            <v>Lech Poznań</v>
+            <v>Warta Poznań</v>
           </cell>
         </row>
         <row r="238">
@@ -2945,7 +2945,7 @@
             <v xml:space="preserve"> Cracovia</v>
           </cell>
           <cell r="C240" t="str">
-            <v>Pogoń Szczecin</v>
+            <v>Cracovia</v>
           </cell>
         </row>
         <row r="241">
@@ -2978,7 +2978,7 @@
             <v xml:space="preserve"> Zagłębie Lubin</v>
           </cell>
           <cell r="C243" t="str">
-            <v>Remis</v>
+            <v>Wisła Płock</v>
           </cell>
         </row>
         <row r="244">
@@ -3000,7 +3000,7 @@
             <v xml:space="preserve"> Radomiak Radom</v>
           </cell>
           <cell r="C245" t="str">
-            <v>Cracovia</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="246">
@@ -3022,7 +3022,7 @@
             <v xml:space="preserve"> Górnik Zabrze</v>
           </cell>
           <cell r="C247" t="str">
-            <v>Zagłębie Lubin</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="248">
@@ -3044,7 +3044,7 @@
             <v xml:space="preserve"> Pogoń Szczecin</v>
           </cell>
           <cell r="C249" t="str">
-            <v>Remis</v>
+            <v>Pogoń Szczecin</v>
           </cell>
         </row>
         <row r="250">
@@ -3055,7 +3055,7 @@
             <v xml:space="preserve"> Lech Poznań</v>
           </cell>
           <cell r="C250" t="str">
-            <v>Legia Warszawa</v>
+            <v>Lech Poznań</v>
           </cell>
         </row>
         <row r="251">
@@ -3088,7 +3088,7 @@
             <v xml:space="preserve"> Śląsk Wrocław</v>
           </cell>
           <cell r="C253" t="str">
-            <v>Śląsk Wrocław</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="254">
@@ -3121,7 +3121,7 @@
             <v xml:space="preserve"> Raków Częstochowa</v>
           </cell>
           <cell r="C256" t="str">
-            <v>Miedź Legnica</v>
+            <v>Raków Częstochowa</v>
           </cell>
         </row>
         <row r="257">
@@ -3132,7 +3132,7 @@
             <v xml:space="preserve"> Śląsk Wrocław</v>
           </cell>
           <cell r="C257" t="str">
-            <v>Remis</v>
+            <v>Górnik Zabrze</v>
           </cell>
         </row>
         <row r="258">
@@ -3165,7 +3165,7 @@
             <v xml:space="preserve"> Legia Warszawa</v>
           </cell>
           <cell r="C260" t="str">
-            <v>Warta Poznań</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="261">
@@ -3176,7 +3176,7 @@
             <v xml:space="preserve"> Piast Gliwice</v>
           </cell>
           <cell r="C261" t="str">
-            <v>Remis</v>
+            <v>Piast Gliwice</v>
           </cell>
         </row>
         <row r="262">
@@ -3187,7 +3187,7 @@
             <v xml:space="preserve"> Jagielonia Białystok</v>
           </cell>
           <cell r="C262" t="str">
-            <v>Remis</v>
+            <v>Wisła Płock</v>
           </cell>
         </row>
         <row r="263">
@@ -3198,7 +3198,7 @@
             <v xml:space="preserve"> Miedź Legnica</v>
           </cell>
           <cell r="C263" t="str">
-            <v>Cracovia</v>
+            <v>Miedź Legnica</v>
           </cell>
         </row>
         <row r="264">
@@ -3209,7 +3209,7 @@
             <v xml:space="preserve"> Pogoń Szczecin</v>
           </cell>
           <cell r="C264" t="str">
-            <v>Remis</v>
+            <v>Pogoń Szczecin</v>
           </cell>
         </row>
         <row r="265">
@@ -3253,7 +3253,7 @@
             <v xml:space="preserve"> Wisła Płock</v>
           </cell>
           <cell r="C268" t="str">
-            <v>Legia Warszawa</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="269">
@@ -3264,7 +3264,7 @@
             <v xml:space="preserve"> Lechia Gdańsk</v>
           </cell>
           <cell r="C269" t="str">
-            <v>Remis</v>
+            <v>Raków Częstochowa</v>
           </cell>
         </row>
         <row r="270">
@@ -3275,7 +3275,7 @@
             <v xml:space="preserve"> Korona Kielce</v>
           </cell>
           <cell r="C270" t="str">
-            <v>Remis</v>
+            <v>Stal Mielec</v>
           </cell>
         </row>
         <row r="271">
@@ -3286,7 +3286,7 @@
             <v xml:space="preserve"> Radomiak Radom</v>
           </cell>
           <cell r="C271" t="str">
-            <v>Śląsk Wrocław</v>
+            <v>Radomiak Radom</v>
           </cell>
         </row>
         <row r="272">
@@ -3297,7 +3297,7 @@
             <v xml:space="preserve"> Śląsk Wrocław</v>
           </cell>
           <cell r="C272" t="str">
-            <v>Jagielonia Białystok</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="273">
@@ -3330,7 +3330,7 @@
             <v xml:space="preserve"> Zagłębie Lubin</v>
           </cell>
           <cell r="C275" t="str">
-            <v>Lechia Gdańsk</v>
+            <v>Zagłębie Lubin</v>
           </cell>
         </row>
         <row r="276">
@@ -3341,7 +3341,7 @@
             <v xml:space="preserve"> Widzew Łódź</v>
           </cell>
           <cell r="C276" t="str">
-            <v>Widzew Łódź</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="277">
@@ -3363,7 +3363,7 @@
             <v xml:space="preserve"> Legia Warszawa</v>
           </cell>
           <cell r="C278" t="str">
-            <v>Remis</v>
+            <v>Pogoń Szczecin</v>
           </cell>
         </row>
         <row r="279">
@@ -3374,7 +3374,7 @@
             <v xml:space="preserve"> Piast Gliwice</v>
           </cell>
           <cell r="C279" t="str">
-            <v>Piast Gliwice</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="280">
@@ -3385,7 +3385,7 @@
             <v xml:space="preserve"> Stal Mielec</v>
           </cell>
           <cell r="C280" t="str">
-            <v>Remis</v>
+            <v>Wisła Płock</v>
           </cell>
         </row>
         <row r="281">
@@ -3396,7 +3396,7 @@
             <v xml:space="preserve"> Zagłębie Lubin</v>
           </cell>
           <cell r="C281" t="str">
-            <v>Zagłębie Lubin</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="282">
@@ -3418,7 +3418,7 @@
             <v xml:space="preserve"> Jagielonia Białystok</v>
           </cell>
           <cell r="C283" t="str">
-            <v>Legia Warszawa</v>
+            <v>Jagielonia Białystok</v>
           </cell>
         </row>
         <row r="284">
@@ -3440,7 +3440,7 @@
             <v xml:space="preserve"> Lech Poznań</v>
           </cell>
           <cell r="C285" t="str">
-            <v>Lech Poznań</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="286">
@@ -3462,7 +3462,7 @@
             <v xml:space="preserve"> Radomiak Radom</v>
           </cell>
           <cell r="C287" t="str">
-            <v>Radomiak Radom</v>
+            <v>Warta Poznań</v>
           </cell>
         </row>
         <row r="288">
@@ -3473,7 +3473,7 @@
             <v xml:space="preserve"> Górnik Zabrze</v>
           </cell>
           <cell r="C288" t="str">
-            <v>Górnik Zabrze</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="289">
@@ -3495,7 +3495,7 @@
             <v xml:space="preserve"> Cracovia</v>
           </cell>
           <cell r="C290" t="str">
-            <v>Remis</v>
+            <v>Cracovia</v>
           </cell>
         </row>
         <row r="291">
@@ -3506,7 +3506,7 @@
             <v xml:space="preserve"> Stal Mielec</v>
           </cell>
           <cell r="C291" t="str">
-            <v>Remis</v>
+            <v>Stal Mielec</v>
           </cell>
         </row>
         <row r="292">
@@ -3528,7 +3528,7 @@
             <v xml:space="preserve"> Legia Warszawa</v>
           </cell>
           <cell r="C293" t="str">
-            <v>Legia Warszawa</v>
+            <v>Lechia Gdańsk</v>
           </cell>
         </row>
         <row r="294">
@@ -3583,7 +3583,7 @@
             <v xml:space="preserve"> Miedź Legnica</v>
           </cell>
           <cell r="C298" t="str">
-            <v>Remis</v>
+            <v>Śląsk Wrocław</v>
           </cell>
         </row>
         <row r="299">
@@ -3605,7 +3605,7 @@
             <v xml:space="preserve"> Lechia Gdańsk</v>
           </cell>
           <cell r="C300" t="str">
-            <v>Lechia Gdańsk</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="301">
@@ -3627,7 +3627,7 @@
             <v xml:space="preserve"> Śląsk Wrocław</v>
           </cell>
           <cell r="C302" t="str">
-            <v>Legia Warszawa</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="303">
@@ -3638,7 +3638,7 @@
             <v xml:space="preserve"> Górnik Zabrze</v>
           </cell>
           <cell r="C303" t="str">
-            <v>Górnik Zabrze</v>
+            <v>Miedź Legnica</v>
           </cell>
         </row>
         <row r="304">
@@ -3649,7 +3649,7 @@
             <v xml:space="preserve"> Radomiak Radom</v>
           </cell>
           <cell r="C304" t="str">
-            <v>Pogoń Szczecin</v>
+            <v>Remis</v>
           </cell>
         </row>
         <row r="305">
@@ -3660,7 +3660,7 @@
             <v xml:space="preserve"> Zagłębie Lubin</v>
           </cell>
           <cell r="C305" t="str">
-            <v>Remis</v>
+            <v>Raków Częstochowa</v>
           </cell>
         </row>
         <row r="306">
@@ -3991,7 +3991,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4028,23 +4028,23 @@
       </c>
       <c r="B2" s="9">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A2)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A2 &amp; "*")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A2 &amp; "*")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="9">
         <f t="shared" ref="E2:E19" si="0">34-SUM(B2:D2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="10">
         <f t="shared" ref="F2:F19" si="1">(B2*3)+((C2+D2)*1)</f>
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4053,11 +4053,11 @@
       </c>
       <c r="B3" s="9">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A3)</f>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C3" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A3 &amp; "*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A3 &amp; "*")</f>
@@ -4065,11 +4065,11 @@
       </c>
       <c r="E3" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="10">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4078,7 +4078,7 @@
       </c>
       <c r="B4" s="9">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A4)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A4 &amp; "*")</f>
@@ -4086,15 +4086,15 @@
       </c>
       <c r="D4" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A4 &amp; "*")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="10">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4103,23 +4103,23 @@
       </c>
       <c r="B5" s="9">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A5)</f>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C5" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A5 &amp; "*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A5 &amp; "*")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" s="10">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4128,11 +4128,11 @@
       </c>
       <c r="B6" s="9">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A6)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A6 &amp; "*")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A6 &amp; "*")</f>
@@ -4140,11 +4140,11 @@
       </c>
       <c r="E6" s="9">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" s="10">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4157,19 +4157,19 @@
       </c>
       <c r="C7" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A7 &amp; "*")</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A7 &amp; "*")</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F7" s="10">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4178,11 +4178,11 @@
       </c>
       <c r="B8" s="9">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A8)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A8 &amp; "*")</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D8" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A8 &amp; "*")</f>
@@ -4190,11 +4190,11 @@
       </c>
       <c r="E8" s="9">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" s="10">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4211,15 +4211,15 @@
       </c>
       <c r="D9" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A9 &amp; "*")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F9" s="10">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4228,23 +4228,23 @@
       </c>
       <c r="B10" s="9">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A10)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A10 &amp; "*")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="9">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A10 &amp; "*")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F10" s="10">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4253,11 +4253,11 @@
       </c>
       <c r="B11" s="5">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A11)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="5">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A11 &amp; "*")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11" s="5">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A11 &amp; "*")</f>
@@ -4265,11 +4265,11 @@
       </c>
       <c r="E11" s="5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4278,23 +4278,23 @@
       </c>
       <c r="B12" s="7">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A12)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C12" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A12 &amp; "*")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A12 &amp; "*")</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4303,15 +4303,15 @@
       </c>
       <c r="B13" s="7">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A13)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A13 &amp; "*")</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A13 &amp; "*")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="0"/>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="F13" s="7">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4328,11 +4328,11 @@
       </c>
       <c r="B14" s="7">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A14)</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C14" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A14 &amp; "*")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D14" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A14 &amp; "*")</f>
@@ -4340,11 +4340,11 @@
       </c>
       <c r="E14" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4353,23 +4353,23 @@
       </c>
       <c r="B15" s="7">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A15)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C15" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A15 &amp; "*")</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D15" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A15 &amp; "*")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F15" s="7">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4378,7 +4378,7 @@
       </c>
       <c r="B16" s="7">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A16)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A16 &amp; "*")</f>
@@ -4386,11 +4386,11 @@
       </c>
       <c r="D16" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A16 &amp; "*")</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F16" s="7">
         <f t="shared" si="1"/>
@@ -4403,23 +4403,23 @@
       </c>
       <c r="B17" s="7">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A17)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C17" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A17 &amp; "*")</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A17 &amp; "*")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4428,23 +4428,23 @@
       </c>
       <c r="B18" s="7">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A18)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A18 &amp; "*")</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A18 &amp; "*")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E18" s="7">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4453,15 +4453,15 @@
       </c>
       <c r="B19" s="7">
         <f>COUNTIF([1]Sheet1!$C$2:$C$307,A19)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C19" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$A$2:$A$307,"*" &amp; A19 &amp; "*")</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D19" s="7">
         <f>COUNTIFS([1]Sheet1!$C$2:$C$307, "Remis",[1]Sheet1!$B$2:$B$307,"*" &amp; A19 &amp; "*")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" si="0"/>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="F19" s="7">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
